--- a/inputfiles/timeseries_Pine8th.xlsx
+++ b/inputfiles/timeseries_Pine8th.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\SubsurfaceSinks\inputfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB92DA7-47FC-4769-832F-5B608232AB42}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF8FB542-EBDC-43EF-9926-847C0945E94E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2550" yWindow="915" windowWidth="17280" windowHeight="8970" xr2:uid="{3FBB2BFD-78C0-48D5-BF04-846B02A3EE22}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="26">
   <si>
     <t>Qin</t>
   </si>
@@ -101,13 +101,16 @@
   <si>
     <t>Rhodamine_Coutmeas</t>
   </si>
+  <si>
+    <t>Spike In</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -125,18 +128,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -152,20 +149,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -542,10 +538,10 @@
   <dimension ref="A1:X785"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B261" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B276" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L270" sqref="L270"/>
+      <selection pane="bottomRight" activeCell="G277" sqref="G277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,7 +623,7 @@
       <c r="U1" t="s">
         <v>22</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="V1" s="6" t="s">
         <v>23</v>
       </c>
       <c r="W1" t="s">
@@ -701,7 +697,7 @@
       <c r="U2" s="1">
         <v>0</v>
       </c>
-      <c r="V2" s="12">
+      <c r="V2" s="6">
         <v>0</v>
       </c>
     </row>
@@ -769,7 +765,7 @@
       <c r="U3" s="1">
         <v>0</v>
       </c>
-      <c r="V3" s="12">
+      <c r="V3" s="6">
         <v>0</v>
       </c>
     </row>
@@ -837,7 +833,7 @@
       <c r="U4" s="1">
         <v>0</v>
       </c>
-      <c r="V4" s="12">
+      <c r="V4" s="6">
         <v>0</v>
       </c>
     </row>
@@ -905,7 +901,7 @@
       <c r="U5" s="1">
         <v>0</v>
       </c>
-      <c r="V5" s="12">
+      <c r="V5" s="6">
         <v>0</v>
       </c>
     </row>
@@ -973,7 +969,7 @@
       <c r="U6" s="1">
         <v>0</v>
       </c>
-      <c r="V6" s="12">
+      <c r="V6" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1041,7 +1037,7 @@
       <c r="U7" s="1">
         <v>0</v>
       </c>
-      <c r="V7" s="12">
+      <c r="V7" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1109,7 +1105,7 @@
       <c r="U8" s="1">
         <v>0</v>
       </c>
-      <c r="V8" s="12">
+      <c r="V8" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1177,7 +1173,7 @@
       <c r="U9" s="1">
         <v>0</v>
       </c>
-      <c r="V9" s="12">
+      <c r="V9" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1245,7 +1241,7 @@
       <c r="U10" s="1">
         <v>0</v>
       </c>
-      <c r="V10" s="12">
+      <c r="V10" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1313,7 +1309,7 @@
       <c r="U11" s="1">
         <v>0</v>
       </c>
-      <c r="V11" s="12">
+      <c r="V11" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1381,7 +1377,7 @@
       <c r="U12" s="1">
         <v>0</v>
       </c>
-      <c r="V12" s="12">
+      <c r="V12" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1449,7 +1445,7 @@
       <c r="U13" s="1">
         <v>0</v>
       </c>
-      <c r="V13" s="12">
+      <c r="V13" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1517,7 +1513,7 @@
       <c r="U14" s="1">
         <v>0</v>
       </c>
-      <c r="V14" s="12">
+      <c r="V14" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1585,7 +1581,7 @@
       <c r="U15" s="1">
         <v>0</v>
       </c>
-      <c r="V15" s="12">
+      <c r="V15" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1653,7 +1649,7 @@
       <c r="U16" s="1">
         <v>0</v>
       </c>
-      <c r="V16" s="12">
+      <c r="V16" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1721,7 +1717,7 @@
       <c r="U17" s="1">
         <v>0</v>
       </c>
-      <c r="V17" s="12">
+      <c r="V17" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1789,7 +1785,7 @@
       <c r="U18" s="1">
         <v>0</v>
       </c>
-      <c r="V18" s="12">
+      <c r="V18" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1857,7 +1853,7 @@
       <c r="U19" s="1">
         <v>0</v>
       </c>
-      <c r="V19" s="12">
+      <c r="V19" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1925,7 +1921,7 @@
       <c r="U20" s="1">
         <v>0</v>
       </c>
-      <c r="V20" s="12">
+      <c r="V20" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1993,7 +1989,7 @@
       <c r="U21" s="1">
         <v>0</v>
       </c>
-      <c r="V21" s="12">
+      <c r="V21" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2061,7 +2057,7 @@
       <c r="U22" s="1">
         <v>0</v>
       </c>
-      <c r="V22" s="12">
+      <c r="V22" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2129,7 +2125,7 @@
       <c r="U23" s="1">
         <v>0</v>
       </c>
-      <c r="V23" s="12">
+      <c r="V23" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2197,7 +2193,7 @@
       <c r="U24" s="1">
         <v>0</v>
       </c>
-      <c r="V24" s="12">
+      <c r="V24" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2265,7 +2261,7 @@
       <c r="U25" s="1">
         <v>0</v>
       </c>
-      <c r="V25" s="12">
+      <c r="V25" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2333,7 +2329,7 @@
       <c r="U26" s="1">
         <v>0</v>
       </c>
-      <c r="V26" s="12">
+      <c r="V26" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2401,7 +2397,7 @@
       <c r="U27" s="1">
         <v>0</v>
       </c>
-      <c r="V27" s="12">
+      <c r="V27" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2469,7 +2465,7 @@
       <c r="U28" s="1">
         <v>0</v>
       </c>
-      <c r="V28" s="12">
+      <c r="V28" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2537,7 +2533,7 @@
       <c r="U29" s="1">
         <v>0</v>
       </c>
-      <c r="V29" s="12">
+      <c r="V29" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2605,7 +2601,7 @@
       <c r="U30" s="1">
         <v>0</v>
       </c>
-      <c r="V30" s="12">
+      <c r="V30" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2673,7 +2669,7 @@
       <c r="U31" s="1">
         <v>0</v>
       </c>
-      <c r="V31" s="12">
+      <c r="V31" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2741,7 +2737,7 @@
       <c r="U32" s="1">
         <v>0</v>
       </c>
-      <c r="V32" s="12">
+      <c r="V32" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2809,7 +2805,7 @@
       <c r="U33" s="1">
         <v>0</v>
       </c>
-      <c r="V33" s="12">
+      <c r="V33" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2877,7 +2873,7 @@
       <c r="U34" s="1">
         <v>0</v>
       </c>
-      <c r="V34" s="12">
+      <c r="V34" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2945,7 +2941,7 @@
       <c r="U35" s="1">
         <v>0</v>
       </c>
-      <c r="V35" s="12">
+      <c r="V35" s="6">
         <v>0</v>
       </c>
     </row>
@@ -3013,7 +3009,7 @@
       <c r="U36" s="1">
         <v>0</v>
       </c>
-      <c r="V36" s="12">
+      <c r="V36" s="6">
         <v>0</v>
       </c>
     </row>
@@ -3081,7 +3077,7 @@
       <c r="U37" s="1">
         <v>0</v>
       </c>
-      <c r="V37" s="12">
+      <c r="V37" s="6">
         <v>0</v>
       </c>
     </row>
@@ -3149,7 +3145,7 @@
       <c r="U38" s="1">
         <v>0</v>
       </c>
-      <c r="V38" s="12">
+      <c r="V38" s="6">
         <v>0</v>
       </c>
     </row>
@@ -3217,7 +3213,7 @@
       <c r="U39" s="1">
         <v>0</v>
       </c>
-      <c r="V39" s="12">
+      <c r="V39" s="6">
         <v>0</v>
       </c>
     </row>
@@ -3285,7 +3281,7 @@
       <c r="U40" s="1">
         <v>0</v>
       </c>
-      <c r="V40" s="12">
+      <c r="V40" s="6">
         <v>0</v>
       </c>
     </row>
@@ -3353,7 +3349,7 @@
       <c r="U41" s="1">
         <v>0</v>
       </c>
-      <c r="V41" s="12">
+      <c r="V41" s="6">
         <v>0</v>
       </c>
     </row>
@@ -3421,7 +3417,7 @@
       <c r="U42" s="1">
         <v>0</v>
       </c>
-      <c r="V42" s="12">
+      <c r="V42" s="6">
         <v>0</v>
       </c>
     </row>
@@ -3489,7 +3485,7 @@
       <c r="U43" s="1">
         <v>0</v>
       </c>
-      <c r="V43" s="12">
+      <c r="V43" s="6">
         <v>0</v>
       </c>
     </row>
@@ -3557,7 +3553,7 @@
       <c r="U44" s="1">
         <v>0</v>
       </c>
-      <c r="V44" s="12">
+      <c r="V44" s="6">
         <v>0</v>
       </c>
     </row>
@@ -3625,7 +3621,7 @@
       <c r="U45" s="1">
         <v>0</v>
       </c>
-      <c r="V45" s="12">
+      <c r="V45" s="6">
         <v>0</v>
       </c>
     </row>
@@ -3693,7 +3689,7 @@
       <c r="U46" s="1">
         <v>0</v>
       </c>
-      <c r="V46" s="12">
+      <c r="V46" s="6">
         <v>0</v>
       </c>
     </row>
@@ -3761,7 +3757,7 @@
       <c r="U47" s="1">
         <v>0</v>
       </c>
-      <c r="V47" s="12">
+      <c r="V47" s="6">
         <v>0</v>
       </c>
     </row>
@@ -3829,7 +3825,7 @@
       <c r="U48" s="1">
         <v>0</v>
       </c>
-      <c r="V48" s="12">
+      <c r="V48" s="6">
         <v>0</v>
       </c>
     </row>
@@ -3897,7 +3893,7 @@
       <c r="U49" s="1">
         <v>0</v>
       </c>
-      <c r="V49" s="12">
+      <c r="V49" s="6">
         <v>0</v>
       </c>
     </row>
@@ -3965,7 +3961,7 @@
       <c r="U50" s="1">
         <v>0</v>
       </c>
-      <c r="V50" s="12">
+      <c r="V50" s="6">
         <v>0</v>
       </c>
     </row>
@@ -4033,7 +4029,7 @@
       <c r="U51" s="1">
         <v>0</v>
       </c>
-      <c r="V51" s="12">
+      <c r="V51" s="6">
         <v>0</v>
       </c>
     </row>
@@ -4101,7 +4097,7 @@
       <c r="U52" s="1">
         <v>0</v>
       </c>
-      <c r="V52" s="12">
+      <c r="V52" s="6">
         <v>0</v>
       </c>
     </row>
@@ -4169,7 +4165,7 @@
       <c r="U53" s="1">
         <v>0</v>
       </c>
-      <c r="V53" s="12">
+      <c r="V53" s="6">
         <v>0</v>
       </c>
     </row>
@@ -4237,7 +4233,7 @@
       <c r="U54" s="1">
         <v>0</v>
       </c>
-      <c r="V54" s="12">
+      <c r="V54" s="6">
         <v>0</v>
       </c>
     </row>
@@ -4305,7 +4301,7 @@
       <c r="U55" s="1">
         <v>0</v>
       </c>
-      <c r="V55" s="12">
+      <c r="V55" s="6">
         <v>0</v>
       </c>
     </row>
@@ -4373,7 +4369,7 @@
       <c r="U56" s="1">
         <v>0</v>
       </c>
-      <c r="V56" s="12">
+      <c r="V56" s="6">
         <v>0</v>
       </c>
     </row>
@@ -4441,7 +4437,7 @@
       <c r="U57" s="1">
         <v>0</v>
       </c>
-      <c r="V57" s="12">
+      <c r="V57" s="6">
         <v>0</v>
       </c>
     </row>
@@ -4509,7 +4505,7 @@
       <c r="U58" s="1">
         <v>0</v>
       </c>
-      <c r="V58" s="12">
+      <c r="V58" s="6">
         <v>0</v>
       </c>
     </row>
@@ -4577,7 +4573,7 @@
       <c r="U59" s="1">
         <v>0</v>
       </c>
-      <c r="V59" s="12">
+      <c r="V59" s="6">
         <v>0</v>
       </c>
     </row>
@@ -4645,7 +4641,7 @@
       <c r="U60" s="1">
         <v>0</v>
       </c>
-      <c r="V60" s="12">
+      <c r="V60" s="6">
         <v>0</v>
       </c>
     </row>
@@ -4713,7 +4709,7 @@
       <c r="U61" s="1">
         <v>0</v>
       </c>
-      <c r="V61" s="12">
+      <c r="V61" s="6">
         <v>0</v>
       </c>
     </row>
@@ -4781,7 +4777,7 @@
       <c r="U62" s="1">
         <v>0</v>
       </c>
-      <c r="V62" s="12">
+      <c r="V62" s="6">
         <v>0</v>
       </c>
     </row>
@@ -4849,7 +4845,7 @@
       <c r="U63" s="1">
         <v>0</v>
       </c>
-      <c r="V63" s="12">
+      <c r="V63" s="6">
         <v>0</v>
       </c>
     </row>
@@ -4917,7 +4913,7 @@
       <c r="U64" s="1">
         <v>0</v>
       </c>
-      <c r="V64" s="12">
+      <c r="V64" s="6">
         <v>0</v>
       </c>
     </row>
@@ -4985,7 +4981,7 @@
       <c r="U65" s="1">
         <v>0</v>
       </c>
-      <c r="V65" s="12">
+      <c r="V65" s="6">
         <v>0</v>
       </c>
     </row>
@@ -5053,7 +5049,7 @@
       <c r="U66" s="1">
         <v>0</v>
       </c>
-      <c r="V66" s="12">
+      <c r="V66" s="6">
         <v>0</v>
       </c>
     </row>
@@ -5121,7 +5117,7 @@
       <c r="U67" s="1">
         <v>0</v>
       </c>
-      <c r="V67" s="12">
+      <c r="V67" s="6">
         <v>0</v>
       </c>
     </row>
@@ -5189,7 +5185,7 @@
       <c r="U68" s="1">
         <v>0</v>
       </c>
-      <c r="V68" s="12">
+      <c r="V68" s="6">
         <v>0</v>
       </c>
     </row>
@@ -5257,7 +5253,7 @@
       <c r="U69" s="1">
         <v>0</v>
       </c>
-      <c r="V69" s="12">
+      <c r="V69" s="6">
         <v>0</v>
       </c>
     </row>
@@ -5325,7 +5321,7 @@
       <c r="U70" s="1">
         <v>0</v>
       </c>
-      <c r="V70" s="12">
+      <c r="V70" s="6">
         <v>0</v>
       </c>
     </row>
@@ -5393,7 +5389,7 @@
       <c r="U71" s="1">
         <v>0</v>
       </c>
-      <c r="V71" s="12">
+      <c r="V71" s="6">
         <v>0</v>
       </c>
     </row>
@@ -5461,7 +5457,7 @@
       <c r="U72" s="1">
         <v>0</v>
       </c>
-      <c r="V72" s="12">
+      <c r="V72" s="6">
         <v>0</v>
       </c>
     </row>
@@ -5529,7 +5525,7 @@
       <c r="U73" s="1">
         <v>0</v>
       </c>
-      <c r="V73" s="12">
+      <c r="V73" s="6">
         <v>0</v>
       </c>
     </row>
@@ -5597,7 +5593,7 @@
       <c r="U74" s="1">
         <v>0</v>
       </c>
-      <c r="V74" s="12">
+      <c r="V74" s="6">
         <v>0</v>
       </c>
     </row>
@@ -5665,7 +5661,7 @@
       <c r="U75" s="1">
         <v>0</v>
       </c>
-      <c r="V75" s="12">
+      <c r="V75" s="6">
         <v>0</v>
       </c>
     </row>
@@ -5733,7 +5729,7 @@
       <c r="U76" s="1">
         <v>0</v>
       </c>
-      <c r="V76" s="12">
+      <c r="V76" s="6">
         <v>0</v>
       </c>
     </row>
@@ -5801,7 +5797,7 @@
       <c r="U77" s="1">
         <v>0</v>
       </c>
-      <c r="V77" s="12">
+      <c r="V77" s="6">
         <v>0</v>
       </c>
     </row>
@@ -5869,7 +5865,7 @@
       <c r="U78" s="1">
         <v>0</v>
       </c>
-      <c r="V78" s="12">
+      <c r="V78" s="6">
         <v>0</v>
       </c>
     </row>
@@ -5937,7 +5933,7 @@
       <c r="U79" s="1">
         <v>0</v>
       </c>
-      <c r="V79" s="12">
+      <c r="V79" s="6">
         <v>0</v>
       </c>
     </row>
@@ -6005,7 +6001,7 @@
       <c r="U80" s="1">
         <v>0</v>
       </c>
-      <c r="V80" s="12">
+      <c r="V80" s="6">
         <v>0</v>
       </c>
     </row>
@@ -6073,7 +6069,7 @@
       <c r="U81" s="1">
         <v>0</v>
       </c>
-      <c r="V81" s="12">
+      <c r="V81" s="6">
         <v>0</v>
       </c>
     </row>
@@ -6141,7 +6137,7 @@
       <c r="U82" s="1">
         <v>0</v>
       </c>
-      <c r="V82" s="12">
+      <c r="V82" s="6">
         <v>0</v>
       </c>
     </row>
@@ -6209,7 +6205,7 @@
       <c r="U83" s="1">
         <v>0</v>
       </c>
-      <c r="V83" s="12">
+      <c r="V83" s="6">
         <v>0</v>
       </c>
     </row>
@@ -6277,7 +6273,7 @@
       <c r="U84" s="1">
         <v>0</v>
       </c>
-      <c r="V84" s="12">
+      <c r="V84" s="6">
         <v>0</v>
       </c>
     </row>
@@ -6345,7 +6341,7 @@
       <c r="U85" s="1">
         <v>0</v>
       </c>
-      <c r="V85" s="12">
+      <c r="V85" s="6">
         <v>0</v>
       </c>
     </row>
@@ -6413,7 +6409,7 @@
       <c r="U86" s="1">
         <v>0</v>
       </c>
-      <c r="V86" s="12">
+      <c r="V86" s="6">
         <v>0</v>
       </c>
     </row>
@@ -6481,7 +6477,7 @@
       <c r="U87" s="1">
         <v>0</v>
       </c>
-      <c r="V87" s="12">
+      <c r="V87" s="6">
         <v>0</v>
       </c>
     </row>
@@ -6549,7 +6545,7 @@
       <c r="U88" s="1">
         <v>0</v>
       </c>
-      <c r="V88" s="12">
+      <c r="V88" s="6">
         <v>0</v>
       </c>
     </row>
@@ -6617,7 +6613,7 @@
       <c r="U89" s="1">
         <v>0</v>
       </c>
-      <c r="V89" s="12">
+      <c r="V89" s="6">
         <v>0</v>
       </c>
     </row>
@@ -6685,7 +6681,7 @@
       <c r="U90" s="1">
         <v>0</v>
       </c>
-      <c r="V90" s="12">
+      <c r="V90" s="6">
         <v>0</v>
       </c>
     </row>
@@ -6753,7 +6749,7 @@
       <c r="U91" s="1">
         <v>0</v>
       </c>
-      <c r="V91" s="12">
+      <c r="V91" s="6">
         <v>0</v>
       </c>
     </row>
@@ -6821,7 +6817,7 @@
       <c r="U92" s="1">
         <v>0</v>
       </c>
-      <c r="V92" s="12">
+      <c r="V92" s="6">
         <v>0</v>
       </c>
     </row>
@@ -6889,7 +6885,7 @@
       <c r="U93" s="1">
         <v>0</v>
       </c>
-      <c r="V93" s="12">
+      <c r="V93" s="6">
         <v>0</v>
       </c>
     </row>
@@ -6957,7 +6953,7 @@
       <c r="U94" s="1">
         <v>0</v>
       </c>
-      <c r="V94" s="12">
+      <c r="V94" s="6">
         <v>0</v>
       </c>
     </row>
@@ -7025,7 +7021,7 @@
       <c r="U95" s="1">
         <v>0</v>
       </c>
-      <c r="V95" s="12">
+      <c r="V95" s="6">
         <v>0</v>
       </c>
     </row>
@@ -7093,7 +7089,7 @@
       <c r="U96" s="1">
         <v>0</v>
       </c>
-      <c r="V96" s="12">
+      <c r="V96" s="6">
         <v>0</v>
       </c>
     </row>
@@ -7161,7 +7157,7 @@
       <c r="U97" s="1">
         <v>0</v>
       </c>
-      <c r="V97" s="12">
+      <c r="V97" s="6">
         <v>0</v>
       </c>
     </row>
@@ -7229,7 +7225,7 @@
       <c r="U98" s="1">
         <v>0</v>
       </c>
-      <c r="V98" s="12">
+      <c r="V98" s="6">
         <v>0</v>
       </c>
     </row>
@@ -7297,7 +7293,7 @@
       <c r="U99" s="1">
         <v>0</v>
       </c>
-      <c r="V99" s="12">
+      <c r="V99" s="6">
         <v>0</v>
       </c>
     </row>
@@ -7365,7 +7361,7 @@
       <c r="U100" s="1">
         <v>0</v>
       </c>
-      <c r="V100" s="12">
+      <c r="V100" s="6">
         <v>0</v>
       </c>
     </row>
@@ -7433,7 +7429,7 @@
       <c r="U101" s="1">
         <v>0</v>
       </c>
-      <c r="V101" s="12">
+      <c r="V101" s="6">
         <v>0</v>
       </c>
     </row>
@@ -7501,7 +7497,7 @@
       <c r="U102" s="1">
         <v>0</v>
       </c>
-      <c r="V102" s="12">
+      <c r="V102" s="6">
         <v>0</v>
       </c>
     </row>
@@ -7569,7 +7565,7 @@
       <c r="U103" s="1">
         <v>0</v>
       </c>
-      <c r="V103" s="12">
+      <c r="V103" s="6">
         <v>0</v>
       </c>
     </row>
@@ -7637,7 +7633,7 @@
       <c r="U104" s="1">
         <v>0</v>
       </c>
-      <c r="V104" s="12">
+      <c r="V104" s="6">
         <v>0</v>
       </c>
     </row>
@@ -7705,7 +7701,7 @@
       <c r="U105" s="1">
         <v>0</v>
       </c>
-      <c r="V105" s="12">
+      <c r="V105" s="6">
         <v>0</v>
       </c>
     </row>
@@ -7773,7 +7769,7 @@
       <c r="U106" s="1">
         <v>0</v>
       </c>
-      <c r="V106" s="12">
+      <c r="V106" s="6">
         <v>0</v>
       </c>
     </row>
@@ -7841,7 +7837,7 @@
       <c r="U107" s="1">
         <v>0</v>
       </c>
-      <c r="V107" s="12">
+      <c r="V107" s="6">
         <v>0</v>
       </c>
     </row>
@@ -7909,7 +7905,7 @@
       <c r="U108" s="1">
         <v>0</v>
       </c>
-      <c r="V108" s="12">
+      <c r="V108" s="6">
         <v>0</v>
       </c>
     </row>
@@ -7977,7 +7973,7 @@
       <c r="U109" s="1">
         <v>0</v>
       </c>
-      <c r="V109" s="12">
+      <c r="V109" s="6">
         <v>0</v>
       </c>
     </row>
@@ -8045,7 +8041,7 @@
       <c r="U110" s="1">
         <v>0</v>
       </c>
-      <c r="V110" s="12">
+      <c r="V110" s="6">
         <v>0</v>
       </c>
     </row>
@@ -8113,7 +8109,7 @@
       <c r="U111" s="1">
         <v>0</v>
       </c>
-      <c r="V111" s="12">
+      <c r="V111" s="6">
         <v>0</v>
       </c>
     </row>
@@ -8181,7 +8177,7 @@
       <c r="U112" s="1">
         <v>0</v>
       </c>
-      <c r="V112" s="12">
+      <c r="V112" s="6">
         <v>0</v>
       </c>
     </row>
@@ -8249,7 +8245,7 @@
       <c r="U113" s="1">
         <v>0</v>
       </c>
-      <c r="V113" s="12">
+      <c r="V113" s="6">
         <v>0</v>
       </c>
     </row>
@@ -8317,7 +8313,7 @@
       <c r="U114" s="1">
         <v>0</v>
       </c>
-      <c r="V114" s="12">
+      <c r="V114" s="6">
         <v>0</v>
       </c>
     </row>
@@ -8385,7 +8381,7 @@
       <c r="U115" s="1">
         <v>0</v>
       </c>
-      <c r="V115" s="12">
+      <c r="V115" s="6">
         <v>0</v>
       </c>
     </row>
@@ -8453,7 +8449,7 @@
       <c r="U116" s="1">
         <v>0</v>
       </c>
-      <c r="V116" s="12">
+      <c r="V116" s="6">
         <v>0</v>
       </c>
     </row>
@@ -8521,7 +8517,7 @@
       <c r="U117" s="1">
         <v>0</v>
       </c>
-      <c r="V117" s="12">
+      <c r="V117" s="6">
         <v>0</v>
       </c>
     </row>
@@ -8589,7 +8585,7 @@
       <c r="U118" s="1">
         <v>0</v>
       </c>
-      <c r="V118" s="12">
+      <c r="V118" s="6">
         <v>0</v>
       </c>
     </row>
@@ -8657,7 +8653,7 @@
       <c r="U119" s="1">
         <v>0</v>
       </c>
-      <c r="V119" s="12">
+      <c r="V119" s="6">
         <v>0</v>
       </c>
     </row>
@@ -8725,7 +8721,7 @@
       <c r="U120" s="1">
         <v>0</v>
       </c>
-      <c r="V120" s="12">
+      <c r="V120" s="6">
         <v>0</v>
       </c>
     </row>
@@ -8793,7 +8789,7 @@
       <c r="U121" s="1">
         <v>0</v>
       </c>
-      <c r="V121" s="12">
+      <c r="V121" s="6">
         <v>0</v>
       </c>
     </row>
@@ -8861,7 +8857,7 @@
       <c r="U122" s="1">
         <v>0</v>
       </c>
-      <c r="V122" s="12">
+      <c r="V122" s="6">
         <v>0</v>
       </c>
     </row>
@@ -8929,7 +8925,7 @@
       <c r="U123" s="1">
         <v>0</v>
       </c>
-      <c r="V123" s="12">
+      <c r="V123" s="6">
         <v>0</v>
       </c>
     </row>
@@ -8997,7 +8993,7 @@
       <c r="U124" s="1">
         <v>0</v>
       </c>
-      <c r="V124" s="12">
+      <c r="V124" s="6">
         <v>0</v>
       </c>
     </row>
@@ -9065,7 +9061,7 @@
       <c r="U125" s="1">
         <v>0</v>
       </c>
-      <c r="V125" s="12">
+      <c r="V125" s="6">
         <v>0</v>
       </c>
     </row>
@@ -9133,7 +9129,7 @@
       <c r="U126" s="1">
         <v>0</v>
       </c>
-      <c r="V126" s="12">
+      <c r="V126" s="6">
         <v>0</v>
       </c>
     </row>
@@ -9201,7 +9197,7 @@
       <c r="U127" s="1">
         <v>0</v>
       </c>
-      <c r="V127" s="12">
+      <c r="V127" s="6">
         <v>0</v>
       </c>
     </row>
@@ -9269,7 +9265,7 @@
       <c r="U128" s="1">
         <v>0</v>
       </c>
-      <c r="V128" s="12">
+      <c r="V128" s="6">
         <v>0</v>
       </c>
     </row>
@@ -9337,7 +9333,7 @@
       <c r="U129" s="1">
         <v>0</v>
       </c>
-      <c r="V129" s="12">
+      <c r="V129" s="6">
         <v>0</v>
       </c>
     </row>
@@ -9405,7 +9401,7 @@
       <c r="U130" s="1">
         <v>0</v>
       </c>
-      <c r="V130" s="12">
+      <c r="V130" s="6">
         <v>0</v>
       </c>
     </row>
@@ -9473,7 +9469,7 @@
       <c r="U131" s="1">
         <v>0</v>
       </c>
-      <c r="V131" s="12">
+      <c r="V131" s="6">
         <v>0</v>
       </c>
     </row>
@@ -9541,7 +9537,7 @@
       <c r="U132" s="1">
         <v>0</v>
       </c>
-      <c r="V132" s="12">
+      <c r="V132" s="6">
         <v>0</v>
       </c>
     </row>
@@ -9609,7 +9605,7 @@
       <c r="U133" s="1">
         <v>0</v>
       </c>
-      <c r="V133" s="12">
+      <c r="V133" s="6">
         <v>0</v>
       </c>
     </row>
@@ -9677,7 +9673,7 @@
       <c r="U134" s="1">
         <v>0</v>
       </c>
-      <c r="V134" s="12">
+      <c r="V134" s="6">
         <v>0</v>
       </c>
     </row>
@@ -9745,7 +9741,7 @@
       <c r="U135" s="1">
         <v>0</v>
       </c>
-      <c r="V135" s="12">
+      <c r="V135" s="6">
         <v>0</v>
       </c>
     </row>
@@ -9813,7 +9809,7 @@
       <c r="U136" s="1">
         <v>0</v>
       </c>
-      <c r="V136" s="12">
+      <c r="V136" s="6">
         <v>0</v>
       </c>
     </row>
@@ -9881,7 +9877,7 @@
       <c r="U137" s="1">
         <v>0</v>
       </c>
-      <c r="V137" s="12">
+      <c r="V137" s="6">
         <v>0</v>
       </c>
     </row>
@@ -9949,7 +9945,7 @@
       <c r="U138" s="1">
         <v>0</v>
       </c>
-      <c r="V138" s="12">
+      <c r="V138" s="6">
         <v>0</v>
       </c>
     </row>
@@ -10017,7 +10013,7 @@
       <c r="U139" s="1">
         <v>0</v>
       </c>
-      <c r="V139" s="12">
+      <c r="V139" s="6">
         <v>0</v>
       </c>
     </row>
@@ -10085,7 +10081,7 @@
       <c r="U140" s="1">
         <v>0</v>
       </c>
-      <c r="V140" s="12">
+      <c r="V140" s="6">
         <v>0</v>
       </c>
     </row>
@@ -10153,7 +10149,7 @@
       <c r="U141" s="1">
         <v>0</v>
       </c>
-      <c r="V141" s="12">
+      <c r="V141" s="6">
         <v>0</v>
       </c>
     </row>
@@ -10221,7 +10217,7 @@
       <c r="U142" s="1">
         <v>0</v>
       </c>
-      <c r="V142" s="12">
+      <c r="V142" s="6">
         <v>0</v>
       </c>
     </row>
@@ -10289,7 +10285,7 @@
       <c r="U143" s="1">
         <v>0</v>
       </c>
-      <c r="V143" s="12">
+      <c r="V143" s="6">
         <v>0</v>
       </c>
     </row>
@@ -10357,7 +10353,7 @@
       <c r="U144" s="1">
         <v>0</v>
       </c>
-      <c r="V144" s="12">
+      <c r="V144" s="6">
         <v>0</v>
       </c>
     </row>
@@ -10425,7 +10421,7 @@
       <c r="U145" s="1">
         <v>0</v>
       </c>
-      <c r="V145" s="12">
+      <c r="V145" s="6">
         <v>0</v>
       </c>
     </row>
@@ -10493,7 +10489,7 @@
       <c r="U146" s="1">
         <v>0</v>
       </c>
-      <c r="V146" s="12">
+      <c r="V146" s="6">
         <v>0</v>
       </c>
     </row>
@@ -10561,7 +10557,7 @@
       <c r="U147" s="1">
         <v>0</v>
       </c>
-      <c r="V147" s="12">
+      <c r="V147" s="6">
         <v>0</v>
       </c>
     </row>
@@ -10629,7 +10625,7 @@
       <c r="U148" s="1">
         <v>0</v>
       </c>
-      <c r="V148" s="12">
+      <c r="V148" s="6">
         <v>0</v>
       </c>
     </row>
@@ -10697,7 +10693,7 @@
       <c r="U149" s="1">
         <v>0</v>
       </c>
-      <c r="V149" s="12">
+      <c r="V149" s="6">
         <v>0</v>
       </c>
     </row>
@@ -10765,7 +10761,7 @@
       <c r="U150" s="1">
         <v>0</v>
       </c>
-      <c r="V150" s="12">
+      <c r="V150" s="6">
         <v>0</v>
       </c>
     </row>
@@ -10833,7 +10829,7 @@
       <c r="U151" s="1">
         <v>0</v>
       </c>
-      <c r="V151" s="12">
+      <c r="V151" s="6">
         <v>0</v>
       </c>
     </row>
@@ -10901,7 +10897,7 @@
       <c r="U152" s="1">
         <v>0</v>
       </c>
-      <c r="V152" s="12">
+      <c r="V152" s="6">
         <v>0</v>
       </c>
     </row>
@@ -10969,7 +10965,7 @@
       <c r="U153" s="1">
         <v>0</v>
       </c>
-      <c r="V153" s="12">
+      <c r="V153" s="6">
         <v>0</v>
       </c>
     </row>
@@ -11037,7 +11033,7 @@
       <c r="U154" s="1">
         <v>0</v>
       </c>
-      <c r="V154" s="12">
+      <c r="V154" s="6">
         <v>0</v>
       </c>
     </row>
@@ -11105,7 +11101,7 @@
       <c r="U155" s="1">
         <v>0</v>
       </c>
-      <c r="V155" s="12">
+      <c r="V155" s="6">
         <v>0</v>
       </c>
     </row>
@@ -11173,7 +11169,7 @@
       <c r="U156" s="1">
         <v>0</v>
       </c>
-      <c r="V156" s="12">
+      <c r="V156" s="6">
         <v>0</v>
       </c>
     </row>
@@ -11241,7 +11237,7 @@
       <c r="U157" s="1">
         <v>0</v>
       </c>
-      <c r="V157" s="12">
+      <c r="V157" s="6">
         <v>0</v>
       </c>
     </row>
@@ -11309,7 +11305,7 @@
       <c r="U158" s="1">
         <v>0</v>
       </c>
-      <c r="V158" s="12">
+      <c r="V158" s="6">
         <v>0</v>
       </c>
     </row>
@@ -11377,7 +11373,7 @@
       <c r="U159" s="1">
         <v>0</v>
       </c>
-      <c r="V159" s="12">
+      <c r="V159" s="6">
         <v>0</v>
       </c>
     </row>
@@ -11445,7 +11441,7 @@
       <c r="U160" s="1">
         <v>0</v>
       </c>
-      <c r="V160" s="12">
+      <c r="V160" s="6">
         <v>0</v>
       </c>
     </row>
@@ -11513,7 +11509,7 @@
       <c r="U161" s="1">
         <v>0</v>
       </c>
-      <c r="V161" s="12">
+      <c r="V161" s="6">
         <v>0</v>
       </c>
     </row>
@@ -11581,7 +11577,7 @@
       <c r="U162" s="1">
         <v>0</v>
       </c>
-      <c r="V162" s="12">
+      <c r="V162" s="6">
         <v>0</v>
       </c>
     </row>
@@ -11649,7 +11645,7 @@
       <c r="U163" s="1">
         <v>0</v>
       </c>
-      <c r="V163" s="12">
+      <c r="V163" s="6">
         <v>0</v>
       </c>
     </row>
@@ -11717,7 +11713,7 @@
       <c r="U164" s="1">
         <v>0</v>
       </c>
-      <c r="V164" s="12">
+      <c r="V164" s="6">
         <v>0</v>
       </c>
     </row>
@@ -11785,7 +11781,7 @@
       <c r="U165" s="1">
         <v>0</v>
       </c>
-      <c r="V165" s="12">
+      <c r="V165" s="6">
         <v>0</v>
       </c>
     </row>
@@ -11853,7 +11849,7 @@
       <c r="U166" s="1">
         <v>0</v>
       </c>
-      <c r="V166" s="12">
+      <c r="V166" s="6">
         <v>0</v>
       </c>
     </row>
@@ -11921,7 +11917,7 @@
       <c r="U167" s="1">
         <v>0</v>
       </c>
-      <c r="V167" s="12">
+      <c r="V167" s="6">
         <v>0</v>
       </c>
     </row>
@@ -11989,7 +11985,7 @@
       <c r="U168" s="1">
         <v>0</v>
       </c>
-      <c r="V168" s="12">
+      <c r="V168" s="6">
         <v>0</v>
       </c>
     </row>
@@ -12057,7 +12053,7 @@
       <c r="U169" s="1">
         <v>0</v>
       </c>
-      <c r="V169" s="12">
+      <c r="V169" s="6">
         <v>0</v>
       </c>
     </row>
@@ -12125,7 +12121,7 @@
       <c r="U170" s="1">
         <v>0</v>
       </c>
-      <c r="V170" s="12">
+      <c r="V170" s="6">
         <v>0</v>
       </c>
     </row>
@@ -12193,7 +12189,7 @@
       <c r="U171" s="1">
         <v>0</v>
       </c>
-      <c r="V171" s="12">
+      <c r="V171" s="6">
         <v>0</v>
       </c>
     </row>
@@ -12261,7 +12257,7 @@
       <c r="U172" s="1">
         <v>0</v>
       </c>
-      <c r="V172" s="12">
+      <c r="V172" s="6">
         <v>0</v>
       </c>
     </row>
@@ -12329,7 +12325,7 @@
       <c r="U173" s="1">
         <v>0</v>
       </c>
-      <c r="V173" s="12">
+      <c r="V173" s="6">
         <v>0</v>
       </c>
     </row>
@@ -12397,7 +12393,7 @@
       <c r="U174" s="1">
         <v>0</v>
       </c>
-      <c r="V174" s="12">
+      <c r="V174" s="6">
         <v>0</v>
       </c>
     </row>
@@ -12465,7 +12461,7 @@
       <c r="U175" s="1">
         <v>0</v>
       </c>
-      <c r="V175" s="12">
+      <c r="V175" s="6">
         <v>0</v>
       </c>
     </row>
@@ -12533,7 +12529,7 @@
       <c r="U176" s="1">
         <v>0</v>
       </c>
-      <c r="V176" s="12">
+      <c r="V176" s="6">
         <v>0</v>
       </c>
     </row>
@@ -12601,7 +12597,7 @@
       <c r="U177" s="1">
         <v>0</v>
       </c>
-      <c r="V177" s="12">
+      <c r="V177" s="6">
         <v>0</v>
       </c>
     </row>
@@ -12669,7 +12665,7 @@
       <c r="U178" s="1">
         <v>0</v>
       </c>
-      <c r="V178" s="12">
+      <c r="V178" s="6">
         <v>0</v>
       </c>
     </row>
@@ -12737,7 +12733,7 @@
       <c r="U179" s="1">
         <v>0</v>
       </c>
-      <c r="V179" s="12">
+      <c r="V179" s="6">
         <v>0</v>
       </c>
     </row>
@@ -12805,7 +12801,7 @@
       <c r="U180" s="1">
         <v>0</v>
       </c>
-      <c r="V180" s="12">
+      <c r="V180" s="6">
         <v>0</v>
       </c>
     </row>
@@ -12873,7 +12869,7 @@
       <c r="U181" s="1">
         <v>0</v>
       </c>
-      <c r="V181" s="12">
+      <c r="V181" s="6">
         <v>0</v>
       </c>
     </row>
@@ -12941,7 +12937,7 @@
       <c r="U182" s="1">
         <v>0</v>
       </c>
-      <c r="V182" s="12">
+      <c r="V182" s="6">
         <v>0</v>
       </c>
     </row>
@@ -13009,7 +13005,7 @@
       <c r="U183" s="1">
         <v>0</v>
       </c>
-      <c r="V183" s="12">
+      <c r="V183" s="6">
         <v>0</v>
       </c>
     </row>
@@ -13077,7 +13073,7 @@
       <c r="U184" s="1">
         <v>0</v>
       </c>
-      <c r="V184" s="12">
+      <c r="V184" s="6">
         <v>0</v>
       </c>
     </row>
@@ -13145,7 +13141,7 @@
       <c r="U185" s="1">
         <v>0</v>
       </c>
-      <c r="V185" s="12">
+      <c r="V185" s="6">
         <v>0</v>
       </c>
     </row>
@@ -13213,7 +13209,7 @@
       <c r="U186" s="1">
         <v>0</v>
       </c>
-      <c r="V186" s="12">
+      <c r="V186" s="6">
         <v>0</v>
       </c>
     </row>
@@ -13281,7 +13277,7 @@
       <c r="U187" s="1">
         <v>0</v>
       </c>
-      <c r="V187" s="12">
+      <c r="V187" s="6">
         <v>0</v>
       </c>
     </row>
@@ -13349,7 +13345,7 @@
       <c r="U188" s="1">
         <v>0</v>
       </c>
-      <c r="V188" s="12">
+      <c r="V188" s="6">
         <v>0</v>
       </c>
     </row>
@@ -13417,7 +13413,7 @@
       <c r="U189" s="1">
         <v>0</v>
       </c>
-      <c r="V189" s="12">
+      <c r="V189" s="6">
         <v>0</v>
       </c>
     </row>
@@ -13485,7 +13481,7 @@
       <c r="U190" s="1">
         <v>0</v>
       </c>
-      <c r="V190" s="12">
+      <c r="V190" s="6">
         <v>0</v>
       </c>
     </row>
@@ -13553,7 +13549,7 @@
       <c r="U191" s="1">
         <v>0</v>
       </c>
-      <c r="V191" s="12">
+      <c r="V191" s="6">
         <v>0</v>
       </c>
     </row>
@@ -13621,7 +13617,7 @@
       <c r="U192" s="1">
         <v>0</v>
       </c>
-      <c r="V192" s="12">
+      <c r="V192" s="6">
         <v>0</v>
       </c>
     </row>
@@ -13689,7 +13685,7 @@
       <c r="U193" s="1">
         <v>0</v>
       </c>
-      <c r="V193" s="12">
+      <c r="V193" s="6">
         <v>0</v>
       </c>
     </row>
@@ -13757,7 +13753,7 @@
       <c r="U194" s="1">
         <v>0</v>
       </c>
-      <c r="V194" s="12">
+      <c r="V194" s="6">
         <v>0</v>
       </c>
     </row>
@@ -13825,7 +13821,7 @@
       <c r="U195" s="1">
         <v>0</v>
       </c>
-      <c r="V195" s="12">
+      <c r="V195" s="6">
         <v>0</v>
       </c>
     </row>
@@ -13893,7 +13889,7 @@
       <c r="U196" s="1">
         <v>0</v>
       </c>
-      <c r="V196" s="12">
+      <c r="V196" s="6">
         <v>0</v>
       </c>
     </row>
@@ -13961,7 +13957,7 @@
       <c r="U197" s="1">
         <v>0</v>
       </c>
-      <c r="V197" s="12">
+      <c r="V197" s="6">
         <v>0</v>
       </c>
     </row>
@@ -14029,7 +14025,7 @@
       <c r="U198" s="1">
         <v>0</v>
       </c>
-      <c r="V198" s="12">
+      <c r="V198" s="6">
         <v>0</v>
       </c>
     </row>
@@ -14097,7 +14093,7 @@
       <c r="U199" s="1">
         <v>0</v>
       </c>
-      <c r="V199" s="12">
+      <c r="V199" s="6">
         <v>0</v>
       </c>
     </row>
@@ -14165,7 +14161,7 @@
       <c r="U200" s="1">
         <v>0</v>
       </c>
-      <c r="V200" s="12">
+      <c r="V200" s="6">
         <v>0</v>
       </c>
     </row>
@@ -14233,7 +14229,7 @@
       <c r="U201" s="1">
         <v>0</v>
       </c>
-      <c r="V201" s="12">
+      <c r="V201" s="6">
         <v>0</v>
       </c>
     </row>
@@ -14301,7 +14297,7 @@
       <c r="U202" s="1">
         <v>0</v>
       </c>
-      <c r="V202" s="12">
+      <c r="V202" s="6">
         <v>0</v>
       </c>
     </row>
@@ -14369,7 +14365,7 @@
       <c r="U203" s="1">
         <v>0</v>
       </c>
-      <c r="V203" s="12">
+      <c r="V203" s="6">
         <v>0</v>
       </c>
     </row>
@@ -14437,7 +14433,7 @@
       <c r="U204" s="1">
         <v>0</v>
       </c>
-      <c r="V204" s="12">
+      <c r="V204" s="6">
         <v>0</v>
       </c>
     </row>
@@ -14505,7 +14501,7 @@
       <c r="U205" s="1">
         <v>0</v>
       </c>
-      <c r="V205" s="12">
+      <c r="V205" s="6">
         <v>0</v>
       </c>
     </row>
@@ -14573,7 +14569,7 @@
       <c r="U206" s="1">
         <v>0</v>
       </c>
-      <c r="V206" s="12">
+      <c r="V206" s="6">
         <v>0</v>
       </c>
     </row>
@@ -14641,7 +14637,7 @@
       <c r="U207" s="1">
         <v>0</v>
       </c>
-      <c r="V207" s="12">
+      <c r="V207" s="6">
         <v>0</v>
       </c>
     </row>
@@ -14709,7 +14705,7 @@
       <c r="U208" s="1">
         <v>0</v>
       </c>
-      <c r="V208" s="12">
+      <c r="V208" s="6">
         <v>0</v>
       </c>
     </row>
@@ -14777,7 +14773,7 @@
       <c r="U209" s="1">
         <v>0</v>
       </c>
-      <c r="V209" s="12">
+      <c r="V209" s="6">
         <v>0</v>
       </c>
     </row>
@@ -14845,7 +14841,7 @@
       <c r="U210" s="1">
         <v>0</v>
       </c>
-      <c r="V210" s="12">
+      <c r="V210" s="6">
         <v>0</v>
       </c>
     </row>
@@ -14913,7 +14909,7 @@
       <c r="U211" s="1">
         <v>0</v>
       </c>
-      <c r="V211" s="12">
+      <c r="V211" s="6">
         <v>0</v>
       </c>
     </row>
@@ -14981,7 +14977,7 @@
       <c r="U212" s="1">
         <v>0</v>
       </c>
-      <c r="V212" s="12">
+      <c r="V212" s="6">
         <v>0</v>
       </c>
     </row>
@@ -15049,7 +15045,7 @@
       <c r="U213" s="1">
         <v>0</v>
       </c>
-      <c r="V213" s="12">
+      <c r="V213" s="6">
         <v>0</v>
       </c>
     </row>
@@ -15117,7 +15113,7 @@
       <c r="U214" s="1">
         <v>0</v>
       </c>
-      <c r="V214" s="12">
+      <c r="V214" s="6">
         <v>0</v>
       </c>
     </row>
@@ -15185,7 +15181,7 @@
       <c r="U215" s="1">
         <v>0</v>
       </c>
-      <c r="V215" s="12">
+      <c r="V215" s="6">
         <v>0</v>
       </c>
     </row>
@@ -15253,7 +15249,7 @@
       <c r="U216" s="1">
         <v>0</v>
       </c>
-      <c r="V216" s="12">
+      <c r="V216" s="6">
         <v>0</v>
       </c>
     </row>
@@ -15321,7 +15317,7 @@
       <c r="U217" s="1">
         <v>0</v>
       </c>
-      <c r="V217" s="12">
+      <c r="V217" s="6">
         <v>0</v>
       </c>
     </row>
@@ -15389,7 +15385,7 @@
       <c r="U218" s="1">
         <v>0</v>
       </c>
-      <c r="V218" s="12">
+      <c r="V218" s="6">
         <v>0</v>
       </c>
     </row>
@@ -15457,7 +15453,7 @@
       <c r="U219" s="1">
         <v>0</v>
       </c>
-      <c r="V219" s="12">
+      <c r="V219" s="6">
         <v>0</v>
       </c>
     </row>
@@ -15525,7 +15521,7 @@
       <c r="U220" s="1">
         <v>0</v>
       </c>
-      <c r="V220" s="12">
+      <c r="V220" s="6">
         <v>0</v>
       </c>
     </row>
@@ -15593,7 +15589,7 @@
       <c r="U221" s="1">
         <v>0</v>
       </c>
-      <c r="V221" s="12">
+      <c r="V221" s="6">
         <v>0</v>
       </c>
     </row>
@@ -15661,7 +15657,7 @@
       <c r="U222" s="1">
         <v>0</v>
       </c>
-      <c r="V222" s="12">
+      <c r="V222" s="6">
         <v>0</v>
       </c>
     </row>
@@ -15729,7 +15725,7 @@
       <c r="U223" s="1">
         <v>0</v>
       </c>
-      <c r="V223" s="12">
+      <c r="V223" s="6">
         <v>0</v>
       </c>
     </row>
@@ -15797,7 +15793,7 @@
       <c r="U224" s="1">
         <v>0</v>
       </c>
-      <c r="V224" s="12">
+      <c r="V224" s="6">
         <v>0</v>
       </c>
     </row>
@@ -15865,7 +15861,7 @@
       <c r="U225" s="1">
         <v>0</v>
       </c>
-      <c r="V225" s="12">
+      <c r="V225" s="6">
         <v>0</v>
       </c>
     </row>
@@ -15933,7 +15929,7 @@
       <c r="U226" s="1">
         <v>0</v>
       </c>
-      <c r="V226" s="12">
+      <c r="V226" s="6">
         <v>0</v>
       </c>
     </row>
@@ -16001,7 +15997,7 @@
       <c r="U227" s="1">
         <v>0</v>
       </c>
-      <c r="V227" s="12">
+      <c r="V227" s="6">
         <v>0</v>
       </c>
     </row>
@@ -16069,7 +16065,7 @@
       <c r="U228" s="1">
         <v>0</v>
       </c>
-      <c r="V228" s="12">
+      <c r="V228" s="6">
         <v>0</v>
       </c>
     </row>
@@ -16137,7 +16133,7 @@
       <c r="U229" s="1">
         <v>0</v>
       </c>
-      <c r="V229" s="12">
+      <c r="V229" s="6">
         <v>0</v>
       </c>
     </row>
@@ -16205,7 +16201,7 @@
       <c r="U230" s="1">
         <v>0</v>
       </c>
-      <c r="V230" s="12">
+      <c r="V230" s="6">
         <v>0</v>
       </c>
     </row>
@@ -16273,7 +16269,7 @@
       <c r="U231" s="1">
         <v>0</v>
       </c>
-      <c r="V231" s="12">
+      <c r="V231" s="6">
         <v>0</v>
       </c>
     </row>
@@ -16341,7 +16337,7 @@
       <c r="U232" s="1">
         <v>0</v>
       </c>
-      <c r="V232" s="12">
+      <c r="V232" s="6">
         <v>0</v>
       </c>
     </row>
@@ -16409,7 +16405,7 @@
       <c r="U233" s="1">
         <v>0</v>
       </c>
-      <c r="V233" s="12">
+      <c r="V233" s="6">
         <v>0</v>
       </c>
     </row>
@@ -16477,7 +16473,7 @@
       <c r="U234" s="1">
         <v>0</v>
       </c>
-      <c r="V234" s="12">
+      <c r="V234" s="6">
         <v>0</v>
       </c>
     </row>
@@ -16545,7 +16541,7 @@
       <c r="U235" s="1">
         <v>0</v>
       </c>
-      <c r="V235" s="12">
+      <c r="V235" s="6">
         <v>0</v>
       </c>
     </row>
@@ -16613,7 +16609,7 @@
       <c r="U236" s="1">
         <v>0</v>
       </c>
-      <c r="V236" s="12">
+      <c r="V236" s="6">
         <v>0</v>
       </c>
     </row>
@@ -16681,7 +16677,7 @@
       <c r="U237" s="1">
         <v>0</v>
       </c>
-      <c r="V237" s="12">
+      <c r="V237" s="6">
         <v>0</v>
       </c>
     </row>
@@ -16749,7 +16745,7 @@
       <c r="U238" s="1">
         <v>0</v>
       </c>
-      <c r="V238" s="12">
+      <c r="V238" s="6">
         <v>0</v>
       </c>
     </row>
@@ -16817,7 +16813,7 @@
       <c r="U239" s="1">
         <v>0</v>
       </c>
-      <c r="V239" s="12">
+      <c r="V239" s="6">
         <v>0</v>
       </c>
     </row>
@@ -16885,7 +16881,7 @@
       <c r="U240" s="1">
         <v>0</v>
       </c>
-      <c r="V240" s="12">
+      <c r="V240" s="6">
         <v>0</v>
       </c>
     </row>
@@ -16953,7 +16949,7 @@
       <c r="U241" s="1">
         <v>0</v>
       </c>
-      <c r="V241" s="12">
+      <c r="V241" s="6">
         <v>0</v>
       </c>
     </row>
@@ -17021,7 +17017,7 @@
       <c r="U242" s="2">
         <v>0</v>
       </c>
-      <c r="V242" s="12">
+      <c r="V242" s="6">
         <v>0</v>
       </c>
     </row>
@@ -17089,7 +17085,7 @@
       <c r="U243" s="2">
         <v>0</v>
       </c>
-      <c r="V243" s="12">
+      <c r="V243" s="6">
         <v>0</v>
       </c>
     </row>
@@ -17157,7 +17153,7 @@
       <c r="U244" s="2">
         <v>0</v>
       </c>
-      <c r="V244" s="12">
+      <c r="V244" s="6">
         <v>0</v>
       </c>
     </row>
@@ -17225,7 +17221,7 @@
       <c r="U245" s="2">
         <v>0</v>
       </c>
-      <c r="V245" s="12">
+      <c r="V245" s="6">
         <v>0</v>
       </c>
     </row>
@@ -17293,7 +17289,7 @@
       <c r="U246" s="2">
         <v>0</v>
       </c>
-      <c r="V246" s="12">
+      <c r="V246" s="6">
         <v>0</v>
       </c>
       <c r="W246">
@@ -17367,7 +17363,7 @@
       <c r="U247" s="2">
         <v>0</v>
       </c>
-      <c r="V247" s="12">
+      <c r="V247" s="6">
         <v>0</v>
       </c>
       <c r="W247">
@@ -17438,7 +17434,7 @@
       <c r="U248" s="2">
         <v>0</v>
       </c>
-      <c r="V248" s="12">
+      <c r="V248" s="6">
         <v>0</v>
       </c>
       <c r="W248">
@@ -17509,7 +17505,7 @@
       <c r="U249" s="2">
         <v>0</v>
       </c>
-      <c r="V249" s="12">
+      <c r="V249" s="6">
         <v>0</v>
       </c>
       <c r="W249">
@@ -17580,7 +17576,7 @@
       <c r="U250" s="2">
         <v>0</v>
       </c>
-      <c r="V250" s="12">
+      <c r="V250" s="6">
         <v>0</v>
       </c>
       <c r="W250">
@@ -17651,7 +17647,7 @@
       <c r="U251" s="2">
         <v>0</v>
       </c>
-      <c r="V251" s="12">
+      <c r="V251" s="6">
         <v>0</v>
       </c>
       <c r="W251">
@@ -17722,7 +17718,7 @@
       <c r="U252" s="2">
         <v>0</v>
       </c>
-      <c r="V252" s="12">
+      <c r="V252" s="6">
         <v>0</v>
       </c>
       <c r="W252">
@@ -17793,7 +17789,7 @@
       <c r="U253" s="2">
         <v>0</v>
       </c>
-      <c r="V253" s="12">
+      <c r="V253" s="6">
         <v>0</v>
       </c>
       <c r="W253">
@@ -17864,7 +17860,7 @@
       <c r="U254" s="2">
         <v>0</v>
       </c>
-      <c r="V254" s="12">
+      <c r="V254" s="6">
         <v>0</v>
       </c>
       <c r="W254">
@@ -17935,7 +17931,7 @@
       <c r="U255" s="2">
         <v>0</v>
       </c>
-      <c r="V255" s="12">
+      <c r="V255" s="6">
         <v>0</v>
       </c>
       <c r="W255">
@@ -18006,7 +18002,7 @@
       <c r="U256" s="2">
         <v>0</v>
       </c>
-      <c r="V256" s="12">
+      <c r="V256" s="6">
         <v>0</v>
       </c>
       <c r="W256">
@@ -18077,7 +18073,7 @@
       <c r="U257" s="2">
         <v>0</v>
       </c>
-      <c r="V257" s="12">
+      <c r="V257" s="6">
         <v>0</v>
       </c>
       <c r="W257">
@@ -18148,7 +18144,7 @@
       <c r="U258" s="2">
         <v>0</v>
       </c>
-      <c r="V258" s="12">
+      <c r="V258" s="6">
         <v>0</v>
       </c>
       <c r="W258">
@@ -18219,7 +18215,7 @@
       <c r="U259" s="2">
         <v>0</v>
       </c>
-      <c r="V259" s="12">
+      <c r="V259" s="6">
         <v>0</v>
       </c>
       <c r="W259">
@@ -18290,7 +18286,7 @@
       <c r="U260" s="2">
         <v>0</v>
       </c>
-      <c r="V260" s="12">
+      <c r="V260" s="6">
         <v>0</v>
       </c>
       <c r="W260">
@@ -18361,7 +18357,7 @@
       <c r="U261" s="2">
         <v>0</v>
       </c>
-      <c r="V261" s="12">
+      <c r="V261" s="6">
         <v>0</v>
       </c>
       <c r="W261">
@@ -18432,7 +18428,7 @@
       <c r="U262" s="2">
         <v>0</v>
       </c>
-      <c r="V262" s="12">
+      <c r="V262" s="6">
         <v>0</v>
       </c>
       <c r="W262">
@@ -18503,7 +18499,7 @@
       <c r="U263" s="2">
         <v>0</v>
       </c>
-      <c r="V263" s="12">
+      <c r="V263" s="6">
         <v>0</v>
       </c>
       <c r="W263">
@@ -18574,7 +18570,7 @@
       <c r="U264" s="2">
         <v>0</v>
       </c>
-      <c r="V264" s="12">
+      <c r="V264" s="6">
         <v>0</v>
       </c>
       <c r="W264">
@@ -18645,7 +18641,7 @@
       <c r="U265" s="2">
         <v>0</v>
       </c>
-      <c r="V265" s="12">
+      <c r="V265" s="6">
         <v>0</v>
       </c>
       <c r="W265">
@@ -18716,7 +18712,7 @@
       <c r="U266" s="2">
         <v>0</v>
       </c>
-      <c r="V266" s="12">
+      <c r="V266" s="6">
         <v>0</v>
       </c>
       <c r="W266">
@@ -18787,7 +18783,7 @@
       <c r="U267" s="2">
         <v>0</v>
       </c>
-      <c r="V267" s="12">
+      <c r="V267" s="6">
         <v>0</v>
       </c>
       <c r="W267">
@@ -18858,7 +18854,7 @@
       <c r="U268" s="2">
         <v>0</v>
       </c>
-      <c r="V268" s="12">
+      <c r="V268" s="6">
         <v>0</v>
       </c>
       <c r="W268">
@@ -18929,7 +18925,7 @@
       <c r="U269" s="2">
         <v>0</v>
       </c>
-      <c r="V269" s="12">
+      <c r="V269" s="6">
         <v>0</v>
       </c>
       <c r="W269">
@@ -19000,7 +18996,7 @@
       <c r="U270" s="2">
         <v>0</v>
       </c>
-      <c r="V270" s="12">
+      <c r="V270" s="6">
         <v>0</v>
       </c>
       <c r="W270">
@@ -19071,7 +19067,7 @@
       <c r="U271" s="2">
         <v>0</v>
       </c>
-      <c r="V271" s="12">
+      <c r="V271" s="6">
         <v>0</v>
       </c>
       <c r="W271">
@@ -19142,7 +19138,7 @@
       <c r="U272" s="2">
         <v>0</v>
       </c>
-      <c r="V272" s="12">
+      <c r="V272" s="6">
         <v>0</v>
       </c>
       <c r="W272">
@@ -19213,7 +19209,7 @@
       <c r="U273" s="2">
         <v>0</v>
       </c>
-      <c r="V273" s="12">
+      <c r="V273" s="6">
         <v>0</v>
       </c>
       <c r="W273">
@@ -19284,7 +19280,7 @@
       <c r="U274" s="2">
         <v>0</v>
       </c>
-      <c r="V274" s="12">
+      <c r="V274" s="6">
         <v>0</v>
       </c>
       <c r="W274">
@@ -19355,7 +19351,7 @@
       <c r="U275" s="2">
         <v>0</v>
       </c>
-      <c r="V275" s="12">
+      <c r="V275" s="6">
         <v>0</v>
       </c>
       <c r="W275">
@@ -19426,7 +19422,7 @@
       <c r="U276" s="2">
         <v>0</v>
       </c>
-      <c r="V276" s="12">
+      <c r="V276" s="6">
         <v>0</v>
       </c>
       <c r="W276">
@@ -19497,7 +19493,7 @@
       <c r="U277" s="2">
         <v>0</v>
       </c>
-      <c r="V277" s="12">
+      <c r="V277" s="6">
         <v>0</v>
       </c>
       <c r="W277">
@@ -19568,7 +19564,7 @@
       <c r="U278" s="2">
         <v>0</v>
       </c>
-      <c r="V278" s="12">
+      <c r="V278" s="6">
         <v>0</v>
       </c>
       <c r="W278">
@@ -19639,7 +19635,7 @@
       <c r="U279" s="2">
         <v>0</v>
       </c>
-      <c r="V279" s="12">
+      <c r="V279" s="6">
         <v>0</v>
       </c>
       <c r="W279">
@@ -19710,7 +19706,7 @@
       <c r="U280" s="2">
         <v>0</v>
       </c>
-      <c r="V280" s="12">
+      <c r="V280" s="6">
         <v>0</v>
       </c>
       <c r="W280">
@@ -19781,7 +19777,7 @@
       <c r="U281" s="2">
         <v>0</v>
       </c>
-      <c r="V281" s="12">
+      <c r="V281" s="6">
         <v>0</v>
       </c>
       <c r="W281">
@@ -19852,7 +19848,7 @@
       <c r="U282" s="2">
         <v>0</v>
       </c>
-      <c r="V282" s="12">
+      <c r="V282" s="6">
         <v>0</v>
       </c>
       <c r="W282">
@@ -19923,7 +19919,7 @@
       <c r="U283" s="2">
         <v>0</v>
       </c>
-      <c r="V283" s="12">
+      <c r="V283" s="6">
         <v>0</v>
       </c>
       <c r="W283">
@@ -19994,152 +19990,152 @@
       <c r="U284" s="2">
         <v>0</v>
       </c>
-      <c r="V284" s="12">
+      <c r="V284" s="6">
         <v>0</v>
       </c>
       <c r="W284">
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A285" s="8">
+    <row r="285" spans="1:23" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A285" s="7">
         <v>0.65000000002328306</v>
       </c>
-      <c r="B285" s="9">
+      <c r="B285" s="8">
         <v>3.5293963537673099</v>
       </c>
-      <c r="C285" s="9">
+      <c r="C285" s="8">
         <v>0.15822898032200169</v>
       </c>
-      <c r="D285" s="10">
-        <v>0</v>
-      </c>
-      <c r="E285" s="8">
+      <c r="D285" s="9">
+        <v>0</v>
+      </c>
+      <c r="E285" s="7">
         <v>4.4444444444444446</v>
       </c>
-      <c r="F285" s="8">
+      <c r="F285" s="7">
         <v>67</v>
       </c>
-      <c r="G285" s="8">
+      <c r="G285" s="7">
         <v>24.9</v>
       </c>
-      <c r="H285" s="8">
+      <c r="H285" s="7">
         <v>19.114285714285728</v>
       </c>
-      <c r="I285" s="8">
+      <c r="I285" s="7">
         <v>19.114285714285728</v>
       </c>
-      <c r="J285" s="7">
+      <c r="J285" s="5">
         <v>0.8</v>
       </c>
-      <c r="K285" s="8">
+      <c r="K285" s="7">
         <v>6.589999999999999</v>
       </c>
-      <c r="L285" s="6">
+      <c r="L285" s="10">
         <v>6.589999999999999</v>
       </c>
-      <c r="M285" s="8">
+      <c r="M285" s="7">
         <v>165.4285714285715</v>
       </c>
-      <c r="N285" s="8">
-        <v>0</v>
-      </c>
-      <c r="O285" s="8">
-        <v>0</v>
-      </c>
-      <c r="P285" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q285" s="8">
-        <v>0</v>
-      </c>
-      <c r="R285" s="8">
-        <v>0</v>
-      </c>
-      <c r="S285" s="8">
+      <c r="N285" s="7">
+        <v>0</v>
+      </c>
+      <c r="O285" s="7">
+        <v>0</v>
+      </c>
+      <c r="P285" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q285" s="7">
+        <v>0</v>
+      </c>
+      <c r="R285" s="7">
+        <v>0</v>
+      </c>
+      <c r="S285" s="7">
         <v>0</v>
       </c>
       <c r="T285" s="11">
         <v>0</v>
       </c>
-      <c r="U285" s="2">
-        <v>0</v>
-      </c>
-      <c r="V285" s="12">
-        <v>0</v>
-      </c>
-      <c r="W285">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A286" s="8">
+      <c r="U285" s="7">
+        <v>0</v>
+      </c>
+      <c r="V285" s="11">
+        <v>0</v>
+      </c>
+      <c r="W285" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:23" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A286" s="7">
         <v>0.66666666674427688</v>
       </c>
-      <c r="B286" s="9">
+      <c r="B286" s="8">
         <v>3.5410224276450011</v>
       </c>
-      <c r="C286" s="9">
+      <c r="C286" s="8">
         <v>0.17763864042933608</v>
       </c>
-      <c r="D286" s="10">
-        <v>0</v>
-      </c>
-      <c r="E286" s="8">
+      <c r="D286" s="9">
+        <v>0</v>
+      </c>
+      <c r="E286" s="7">
         <v>4.4444444444444446</v>
       </c>
-      <c r="F286" s="8">
+      <c r="F286" s="7">
         <v>67</v>
       </c>
-      <c r="G286" s="8">
+      <c r="G286" s="7">
         <v>24.9</v>
       </c>
-      <c r="H286" s="8">
+      <c r="H286" s="7">
         <v>19.004761904761917</v>
       </c>
-      <c r="I286" s="8">
+      <c r="I286" s="7">
         <v>19.004761904761917</v>
       </c>
-      <c r="J286" s="7">
+      <c r="J286" s="5">
         <v>0.8</v>
       </c>
-      <c r="K286" s="8">
+      <c r="K286" s="7">
         <v>6.6033333333333317</v>
       </c>
-      <c r="L286" s="6">
+      <c r="L286" s="10">
         <v>6.6033333333333317</v>
       </c>
-      <c r="M286" s="8">
+      <c r="M286" s="7">
         <v>164.80952380952388</v>
       </c>
-      <c r="N286" s="8">
-        <v>0</v>
-      </c>
-      <c r="O286" s="8">
-        <v>0</v>
-      </c>
-      <c r="P286" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q286" s="8">
-        <v>0</v>
-      </c>
-      <c r="R286" s="8">
-        <v>0</v>
-      </c>
-      <c r="S286" s="8">
+      <c r="N286" s="7">
+        <v>0</v>
+      </c>
+      <c r="O286" s="7">
+        <v>0</v>
+      </c>
+      <c r="P286" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q286" s="7">
+        <v>0</v>
+      </c>
+      <c r="R286" s="7">
+        <v>0</v>
+      </c>
+      <c r="S286" s="7">
         <v>0</v>
       </c>
       <c r="T286" s="11">
         <v>0</v>
       </c>
-      <c r="U286" s="2">
-        <v>0</v>
-      </c>
-      <c r="V286" s="12">
-        <v>0</v>
-      </c>
-      <c r="W286">
+      <c r="U286" s="7">
+        <v>0</v>
+      </c>
+      <c r="V286" s="11">
+        <v>0</v>
+      </c>
+      <c r="W286" s="9">
         <v>0</v>
       </c>
     </row>
@@ -20207,7 +20203,7 @@
       <c r="U287" s="2">
         <v>0</v>
       </c>
-      <c r="V287" s="12">
+      <c r="V287" s="6">
         <v>0</v>
       </c>
       <c r="W287">
@@ -20278,19 +20274,19 @@
       <c r="U288" s="2">
         <v>0</v>
       </c>
-      <c r="V288" s="12">
+      <c r="V288" s="6">
         <v>0</v>
       </c>
       <c r="W288">
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A289" s="2">
         <v>0.71666666673263535</v>
       </c>
       <c r="B289" s="1">
-        <v>9.0745905706667429</v>
+        <v>9.5134615384616126</v>
       </c>
       <c r="C289" s="1">
         <v>0.23586762075133932</v>
@@ -20349,19 +20345,22 @@
       <c r="U289" s="2">
         <v>0</v>
       </c>
-      <c r="V289" s="12">
+      <c r="V289" s="6">
         <v>0</v>
       </c>
       <c r="W289">
         <v>0</v>
       </c>
-    </row>
-    <row r="290" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="X289" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="290" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A290" s="2">
         <v>0.73333333327900618</v>
       </c>
       <c r="B290" s="1">
-        <v>9.0745905707196037</v>
+        <v>9.5134615384615593</v>
       </c>
       <c r="C290" s="1">
         <v>0.25527728085867374</v>
@@ -20420,19 +20419,19 @@
       <c r="U290" s="2">
         <v>12.261866581018518</v>
       </c>
-      <c r="V290" s="12">
+      <c r="V290" s="6">
         <v>2.9960857365796026E-8</v>
       </c>
       <c r="W290">
         <v>0.78495910032002403</v>
       </c>
     </row>
-    <row r="291" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A291" s="2">
         <v>0.75</v>
       </c>
       <c r="B291" s="1">
-        <v>9.0745905707196037</v>
+        <v>3.5584615384615388</v>
       </c>
       <c r="C291" s="1">
         <v>0.27468694096600815</v>
@@ -20491,14 +20490,14 @@
       <c r="U291" s="2">
         <v>24.523733290509263</v>
       </c>
-      <c r="V291" s="12">
+      <c r="V291" s="6">
         <v>5.9921715045503295E-8</v>
       </c>
       <c r="W291">
         <v>1.569918208864362</v>
       </c>
     </row>
-    <row r="292" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A292" s="2">
         <v>0.76666666672099382</v>
       </c>
@@ -20562,14 +20561,14 @@
       <c r="U292" s="2">
         <v>36.785600000000002</v>
       </c>
-      <c r="V292" s="12">
+      <c r="V292" s="6">
         <v>8.9882572725210585E-8</v>
       </c>
       <c r="W292">
         <v>2.3548773174086999</v>
       </c>
     </row>
-    <row r="293" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A293" s="2">
         <v>0.78333333326736465</v>
       </c>
@@ -20633,14 +20632,14 @@
       <c r="U293" s="2">
         <v>37.606199995701132</v>
       </c>
-      <c r="V293" s="12">
+      <c r="V293" s="6">
         <v>8.1951640836089476E-8</v>
       </c>
       <c r="W293">
         <v>1.5711614303883332</v>
       </c>
     </row>
-    <row r="294" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A294" s="2">
         <v>0.79999999998835847</v>
       </c>
@@ -20704,14 +20703,14 @@
       <c r="U294" s="2">
         <v>38.4268</v>
       </c>
-      <c r="V294" s="12">
+      <c r="V294" s="6">
         <v>7.4020708863872992E-8</v>
       </c>
       <c r="W294">
         <v>0.78744553515667848</v>
       </c>
     </row>
-    <row r="295" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A295" s="2">
         <v>0.81666666670935228</v>
       </c>
@@ -20775,14 +20774,14 @@
       <c r="U295" s="2">
         <v>34.594849986617071</v>
       </c>
-      <c r="V295" s="12">
+      <c r="V295" s="6">
         <v>8.6787910247508732E-8</v>
       </c>
       <c r="W295">
         <v>0.74644264990020337</v>
       </c>
     </row>
-    <row r="296" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A296" s="2">
         <v>0.8333333334303461</v>
       </c>
@@ -20846,14 +20845,14 @@
       <c r="U296" s="2">
         <v>30.762899973234138</v>
       </c>
-      <c r="V296" s="12">
+      <c r="V296" s="6">
         <v>9.9555111631144458E-8</v>
       </c>
       <c r="W296">
         <v>0.70543976464372815</v>
       </c>
     </row>
-    <row r="297" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A297" s="2">
         <v>0.84999999997671694</v>
       </c>
@@ -20917,14 +20916,14 @@
       <c r="U297" s="2">
         <v>26.930949999999999</v>
       </c>
-      <c r="V297" s="12">
+      <c r="V297" s="6">
         <v>1.1232231288101341E-7</v>
       </c>
       <c r="W297">
         <v>0.66443687981685573</v>
       </c>
     </row>
-    <row r="298" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A298" s="2">
         <v>0.86666666669771075</v>
       </c>
@@ -20988,14 +20987,14 @@
       <c r="U298" s="2">
         <v>23.09899998661707</v>
       </c>
-      <c r="V298" s="12">
+      <c r="V298" s="6">
         <v>1.2508951426464915E-7</v>
       </c>
       <c r="W298">
         <v>0.62343399456038062</v>
       </c>
     </row>
-    <row r="299" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A299" s="2">
         <v>0.88333333341870457</v>
       </c>
@@ -21059,14 +21058,14 @@
       <c r="U299" s="2">
         <v>19.267049973234137</v>
       </c>
-      <c r="V299" s="12">
+      <c r="V299" s="6">
         <v>1.3785671564828489E-7</v>
       </c>
       <c r="W299">
         <v>0.5824311093039054</v>
       </c>
     </row>
-    <row r="300" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A300" s="2">
         <v>0.8999999999650754</v>
       </c>
@@ -21130,14 +21129,14 @@
       <c r="U300" s="2">
         <v>15.4351</v>
       </c>
-      <c r="V300" s="12">
+      <c r="V300" s="6">
         <v>1.5062391689815379E-7</v>
       </c>
       <c r="W300">
         <v>0.54142822447703309</v>
       </c>
     </row>
-    <row r="301" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A301" s="2">
         <v>0.91666666668606922</v>
       </c>
@@ -21201,14 +21200,14 @@
       <c r="U301" s="2">
         <v>16.735100004540197</v>
       </c>
-      <c r="V301" s="12">
+      <c r="V301" s="6">
         <v>1.2807893688301355E-7</v>
       </c>
       <c r="W301">
         <v>0.52569709976051682</v>
       </c>
     </row>
-    <row r="302" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A302" s="2">
         <v>0.93333333340706304</v>
       </c>
@@ -21272,14 +21271,14 @@
       <c r="U302" s="2">
         <v>18.035100009080395</v>
       </c>
-      <c r="V302" s="12">
+      <c r="V302" s="6">
         <v>1.0553395686787332E-7</v>
       </c>
       <c r="W302">
         <v>0.50996597504400065</v>
       </c>
     </row>
-    <row r="303" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A303" s="2">
         <v>0.94999999995343387</v>
       </c>
@@ -21343,14 +21342,14 @@
       <c r="U303" s="2">
         <v>19.335100000000001</v>
       </c>
-      <c r="V303" s="12">
+      <c r="V303" s="6">
         <v>8.2988977088945367E-8</v>
       </c>
       <c r="W303">
         <v>0.49423485049230537</v>
       </c>
     </row>
-    <row r="304" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A304" s="2">
         <v>0.96666666667442769</v>
       </c>
@@ -21414,7 +21413,7 @@
       <c r="U304" s="2">
         <v>20.635100004540199</v>
       </c>
-      <c r="V304" s="12">
+      <c r="V304" s="6">
         <v>6.0443997073805128E-8</v>
       </c>
       <c r="W304">
@@ -21485,7 +21484,7 @@
       <c r="U305" s="2">
         <v>21.935100009080394</v>
       </c>
-      <c r="V305" s="12">
+      <c r="V305" s="6">
         <v>3.7899017058664889E-8</v>
       </c>
       <c r="W305">
@@ -21556,7 +21555,7 @@
       <c r="U306" s="2">
         <v>23.235099999999999</v>
       </c>
-      <c r="V306" s="12">
+      <c r="V306" s="6">
         <v>1.5354037279736937E-8</v>
       </c>
       <c r="W306">
@@ -21627,7 +21626,7 @@
       <c r="U307" s="2">
         <v>22.926066666127024</v>
       </c>
-      <c r="V307" s="12">
+      <c r="V307" s="6">
         <v>1.5536630438982918E-8</v>
       </c>
       <c r="W307">
@@ -21698,7 +21697,7 @@
       <c r="U308" s="2">
         <v>22.617033332254046</v>
       </c>
-      <c r="V308" s="12">
+      <c r="V308" s="6">
         <v>1.5719223598228899E-8</v>
       </c>
       <c r="W308">
@@ -21769,7 +21768,7 @@
       <c r="U309" s="2">
         <v>22.307999998381071</v>
       </c>
-      <c r="V309" s="12">
+      <c r="V309" s="6">
         <v>1.5901816757474877E-8</v>
       </c>
       <c r="W309">
@@ -21840,7 +21839,7 @@
       <c r="U310" s="2">
         <v>21.998966667745954</v>
       </c>
-      <c r="V310" s="12">
+      <c r="V310" s="6">
         <v>1.6084409914807761E-8</v>
       </c>
       <c r="W310">
@@ -21911,7 +21910,7 @@
       <c r="U311" s="2">
         <v>21.689933333872975</v>
       </c>
-      <c r="V311" s="12">
+      <c r="V311" s="6">
         <v>1.6267003074053738E-8</v>
       </c>
       <c r="W311">
@@ -21982,7 +21981,7 @@
       <c r="U312" s="2">
         <v>21.3809</v>
       </c>
-      <c r="V312" s="12">
+      <c r="V312" s="6">
         <v>1.6449596233299719E-8</v>
       </c>
       <c r="W312">
@@ -22053,7 +22052,7 @@
       <c r="U313" s="2">
         <v>20.153500006429969</v>
       </c>
-      <c r="V313" s="12">
+      <c r="V313" s="6">
         <v>1.6374499659168555E-8</v>
       </c>
       <c r="W313">
@@ -22124,7 +22123,7 @@
       <c r="U314" s="2">
         <v>18.926099999999998</v>
       </c>
-      <c r="V314" s="12">
+      <c r="V314" s="6">
         <v>1.6299403084250581E-8</v>
       </c>
       <c r="W314">
@@ -22195,7 +22194,7 @@
       <c r="U315" s="2">
         <v>17.698699993570031</v>
       </c>
-      <c r="V315" s="12">
+      <c r="V315" s="6">
         <v>1.6224306509332603E-8</v>
       </c>
       <c r="W315">
@@ -22266,7 +22265,7 @@
       <c r="U316" s="2">
         <v>16.471299999999999</v>
       </c>
-      <c r="V316" s="12">
+      <c r="V316" s="6">
         <v>1.6149209935201439E-8</v>
       </c>
       <c r="W316">
@@ -22337,7 +22336,7 @@
       <c r="U317" s="2">
         <v>14.561799995998689</v>
       </c>
-      <c r="V317" s="12">
+      <c r="V317" s="6">
         <v>1.2919367941393095E-8</v>
       </c>
       <c r="W317">
@@ -22408,7 +22407,7 @@
       <c r="U318" s="2">
         <v>12.652299991997378</v>
       </c>
-      <c r="V318" s="12">
+      <c r="V318" s="6">
         <v>9.6895259475847514E-9</v>
       </c>
       <c r="W318">
@@ -22479,7 +22478,7 @@
       <c r="U319" s="2">
         <v>10.742800008002622</v>
       </c>
-      <c r="V319" s="12">
+      <c r="V319" s="6">
         <v>6.4596839876166866E-9</v>
       </c>
       <c r="W319">
@@ -22550,7 +22549,7 @@
       <c r="U320" s="2">
         <v>8.8333000040013108</v>
       </c>
-      <c r="V320" s="12">
+      <c r="V320" s="6">
         <v>3.2298419938083442E-9</v>
       </c>
       <c r="W320">
@@ -22621,7 +22620,7 @@
       <c r="U321" s="2">
         <v>6.9238</v>
       </c>
-      <c r="V321" s="12">
+      <c r="V321" s="6">
         <v>0</v>
       </c>
       <c r="W321">
@@ -22692,7 +22691,7 @@
       <c r="U322" s="2">
         <v>6.2785800040561286</v>
       </c>
-      <c r="V322" s="12">
+      <c r="V322" s="6">
         <v>0</v>
       </c>
       <c r="W322">
@@ -22763,7 +22762,7 @@
       <c r="U323" s="2">
         <v>5.6333600013520435</v>
       </c>
-      <c r="V323" s="12">
+      <c r="V323" s="6">
         <v>0</v>
       </c>
       <c r="W323">
@@ -22834,7 +22833,7 @@
       <c r="U324" s="2">
         <v>4.9881399986479575</v>
       </c>
-      <c r="V324" s="12">
+      <c r="V324" s="6">
         <v>0</v>
       </c>
       <c r="W324">
@@ -22905,7 +22904,7 @@
       <c r="U325" s="2">
         <v>4.3429199959438716</v>
       </c>
-      <c r="V325" s="12">
+      <c r="V325" s="6">
         <v>0</v>
       </c>
       <c r="W325">
@@ -22976,7 +22975,7 @@
       <c r="U326" s="2">
         <v>3.6977000000000002</v>
       </c>
-      <c r="V326" s="12">
+      <c r="V326" s="6">
         <v>0</v>
       </c>
       <c r="W326">
@@ -23047,7 +23046,7 @@
       <c r="U327" s="2">
         <v>3.2722199991084171</v>
       </c>
-      <c r="V327" s="12">
+      <c r="V327" s="6">
         <v>0</v>
       </c>
       <c r="W327">
@@ -23118,7 +23117,7 @@
       <c r="U328" s="2">
         <v>2.846739998216834</v>
       </c>
-      <c r="V328" s="12">
+      <c r="V328" s="6">
         <v>0</v>
       </c>
       <c r="W328">
@@ -23189,7 +23188,7 @@
       <c r="U329" s="2">
         <v>2.4212600017831662</v>
       </c>
-      <c r="V329" s="12">
+      <c r="V329" s="6">
         <v>0</v>
       </c>
       <c r="W329">
@@ -23260,7 +23259,7 @@
       <c r="U330" s="2">
         <v>1.9957800008915829</v>
       </c>
-      <c r="V330" s="12">
+      <c r="V330" s="6">
         <v>0</v>
       </c>
       <c r="W330">
@@ -23331,7 +23330,7 @@
       <c r="U331" s="2">
         <v>1.5703</v>
       </c>
-      <c r="V331" s="12">
+      <c r="V331" s="6">
         <v>0</v>
       </c>
       <c r="W331">
@@ -23402,7 +23401,7 @@
       <c r="U332" s="2">
         <v>1.3345600014819623</v>
       </c>
-      <c r="V332" s="12">
+      <c r="V332" s="6">
         <v>0</v>
       </c>
       <c r="W332">
@@ -23473,7 +23472,7 @@
       <c r="U333" s="2">
         <v>1.0988200004939874</v>
       </c>
-      <c r="V333" s="12">
+      <c r="V333" s="6">
         <v>0</v>
       </c>
       <c r="W333">
@@ -23544,7 +23543,7 @@
       <c r="U334" s="2">
         <v>0.86307999950601255</v>
       </c>
-      <c r="V334" s="12">
+      <c r="V334" s="6">
         <v>0</v>
       </c>
       <c r="W334">
@@ -23615,7 +23614,7 @@
       <c r="U335" s="2">
         <v>0.62734000098797482</v>
       </c>
-      <c r="V335" s="12">
+      <c r="V335" s="6">
         <v>0</v>
       </c>
       <c r="W335">
@@ -23686,7 +23685,7 @@
       <c r="U336" s="2">
         <v>0.3916</v>
       </c>
-      <c r="V336" s="12">
+      <c r="V336" s="6">
         <v>0</v>
       </c>
       <c r="W336">
@@ -23757,7 +23756,7 @@
       <c r="U337" s="2">
         <v>0.32543999986136329</v>
       </c>
-      <c r="V337" s="12">
+      <c r="V337" s="6">
         <v>0</v>
       </c>
       <c r="W337">
@@ -23828,7 +23827,7 @@
       <c r="U338" s="2">
         <v>0.25928000041591004</v>
       </c>
-      <c r="V338" s="12">
+      <c r="V338" s="6">
         <v>0</v>
       </c>
       <c r="W338">
@@ -23899,7 +23898,7 @@
       <c r="U339" s="2">
         <v>0.19312000027727338</v>
       </c>
-      <c r="V339" s="12">
+      <c r="V339" s="6">
         <v>0</v>
       </c>
       <c r="W339">
@@ -23970,7 +23969,7 @@
       <c r="U340" s="2">
         <v>0.12696000013863673</v>
       </c>
-      <c r="V340" s="12">
+      <c r="V340" s="6">
         <v>0</v>
       </c>
       <c r="W340">
@@ -24041,7 +24040,7 @@
       <c r="U341" s="2">
         <v>6.08E-2</v>
       </c>
-      <c r="V341" s="12">
+      <c r="V341" s="6">
         <v>0</v>
       </c>
       <c r="W341">
@@ -24112,7 +24111,7 @@
       <c r="U342" s="2">
         <v>4.8640000076442959E-2</v>
       </c>
-      <c r="V342" s="12">
+      <c r="V342" s="6">
         <v>0</v>
       </c>
       <c r="W342">
@@ -24183,7 +24182,7 @@
       <c r="U343" s="2">
         <v>3.6480000025480984E-2</v>
       </c>
-      <c r="V343" s="12">
+      <c r="V343" s="6">
         <v>0</v>
       </c>
       <c r="W343">
@@ -24254,7 +24253,7 @@
       <c r="U344" s="2">
         <v>2.4319999974519009E-2</v>
       </c>
-      <c r="V344" s="12">
+      <c r="V344" s="6">
         <v>0</v>
       </c>
       <c r="W344">
@@ -24325,7 +24324,7 @@
       <c r="U345" s="2">
         <v>1.2160000050961968E-2</v>
       </c>
-      <c r="V345" s="12">
+      <c r="V345" s="6">
         <v>0</v>
       </c>
       <c r="W345">
@@ -24396,7 +24395,7 @@
       <c r="U346" s="2">
         <v>0</v>
       </c>
-      <c r="V346" s="12">
+      <c r="V346" s="6">
         <v>0</v>
       </c>
       <c r="W346">
@@ -24467,7 +24466,7 @@
       <c r="U347" s="2">
         <v>0</v>
       </c>
-      <c r="V347" s="12">
+      <c r="V347" s="6">
         <v>0</v>
       </c>
       <c r="W347">
@@ -24538,7 +24537,7 @@
       <c r="U348" s="2">
         <v>0</v>
       </c>
-      <c r="V348" s="12">
+      <c r="V348" s="6">
         <v>0</v>
       </c>
       <c r="W348">
@@ -24609,7 +24608,7 @@
       <c r="U349" s="2">
         <v>0</v>
       </c>
-      <c r="V349" s="12">
+      <c r="V349" s="6">
         <v>0</v>
       </c>
       <c r="W349">
@@ -24680,7 +24679,7 @@
       <c r="U350" s="2">
         <v>0</v>
       </c>
-      <c r="V350" s="12">
+      <c r="V350" s="6">
         <v>0</v>
       </c>
       <c r="W350">
@@ -24751,7 +24750,7 @@
       <c r="U351" s="2">
         <v>0</v>
       </c>
-      <c r="V351" s="12">
+      <c r="V351" s="6">
         <v>0</v>
       </c>
       <c r="W351">
@@ -24822,7 +24821,7 @@
       <c r="U352" s="2">
         <v>0</v>
       </c>
-      <c r="V352" s="12">
+      <c r="V352" s="6">
         <v>0</v>
       </c>
       <c r="W352">
@@ -24893,7 +24892,7 @@
       <c r="U353" s="2">
         <v>0</v>
       </c>
-      <c r="V353" s="12">
+      <c r="V353" s="6">
         <v>0</v>
       </c>
       <c r="W353">
@@ -24964,7 +24963,7 @@
       <c r="U354" s="2">
         <v>0</v>
       </c>
-      <c r="V354" s="12">
+      <c r="V354" s="6">
         <v>0</v>
       </c>
       <c r="W354">
@@ -25035,7 +25034,7 @@
       <c r="U355" s="2">
         <v>0</v>
       </c>
-      <c r="V355" s="12">
+      <c r="V355" s="6">
         <v>0</v>
       </c>
       <c r="W355">
@@ -25106,7 +25105,7 @@
       <c r="U356" s="2">
         <v>0</v>
       </c>
-      <c r="V356" s="12">
+      <c r="V356" s="6">
         <v>0</v>
       </c>
       <c r="W356">
@@ -25177,7 +25176,7 @@
       <c r="U357" s="2">
         <v>0</v>
       </c>
-      <c r="V357" s="12">
+      <c r="V357" s="6">
         <v>0</v>
       </c>
       <c r="W357">
@@ -25248,7 +25247,7 @@
       <c r="U358" s="2">
         <v>0</v>
       </c>
-      <c r="V358" s="12">
+      <c r="V358" s="6">
         <v>0</v>
       </c>
       <c r="W358">
@@ -25319,7 +25318,7 @@
       <c r="U359" s="2">
         <v>0</v>
       </c>
-      <c r="V359" s="12">
+      <c r="V359" s="6">
         <v>0</v>
       </c>
       <c r="W359">
@@ -25390,7 +25389,7 @@
       <c r="U360" s="2">
         <v>0</v>
       </c>
-      <c r="V360" s="12">
+      <c r="V360" s="6">
         <v>0</v>
       </c>
       <c r="W360">
@@ -25461,7 +25460,7 @@
       <c r="U361" s="2">
         <v>0</v>
       </c>
-      <c r="V361" s="12">
+      <c r="V361" s="6">
         <v>0</v>
       </c>
       <c r="W361">
@@ -25532,7 +25531,7 @@
       <c r="U362" s="2">
         <v>0</v>
       </c>
-      <c r="V362" s="12">
+      <c r="V362" s="6">
         <v>0</v>
       </c>
       <c r="W362">
@@ -25603,7 +25602,7 @@
       <c r="U363" s="2">
         <v>0</v>
       </c>
-      <c r="V363" s="12">
+      <c r="V363" s="6">
         <v>0</v>
       </c>
       <c r="W363">
@@ -25674,7 +25673,7 @@
       <c r="U364" s="2">
         <v>0</v>
       </c>
-      <c r="V364" s="12">
+      <c r="V364" s="6">
         <v>0</v>
       </c>
       <c r="W364">
@@ -25745,7 +25744,7 @@
       <c r="U365" s="2">
         <v>0</v>
       </c>
-      <c r="V365" s="12">
+      <c r="V365" s="6">
         <v>0</v>
       </c>
       <c r="W365">
@@ -25816,7 +25815,7 @@
       <c r="U366" s="2">
         <v>0</v>
       </c>
-      <c r="V366" s="12">
+      <c r="V366" s="6">
         <v>0</v>
       </c>
       <c r="W366">
@@ -25887,7 +25886,7 @@
       <c r="U367" s="2">
         <v>0</v>
       </c>
-      <c r="V367" s="12">
+      <c r="V367" s="6">
         <v>0</v>
       </c>
       <c r="W367">
@@ -25958,7 +25957,7 @@
       <c r="U368" s="2">
         <v>0</v>
       </c>
-      <c r="V368" s="12">
+      <c r="V368" s="6">
         <v>0</v>
       </c>
       <c r="W368">
@@ -26029,7 +26028,7 @@
       <c r="U369" s="2">
         <v>0</v>
       </c>
-      <c r="V369" s="12">
+      <c r="V369" s="6">
         <v>0</v>
       </c>
       <c r="W369">
@@ -26100,7 +26099,7 @@
       <c r="U370" s="2">
         <v>0</v>
       </c>
-      <c r="V370" s="12">
+      <c r="V370" s="6">
         <v>0</v>
       </c>
       <c r="W370">
@@ -26171,7 +26170,7 @@
       <c r="U371" s="2">
         <v>0</v>
       </c>
-      <c r="V371" s="12">
+      <c r="V371" s="6">
         <v>0</v>
       </c>
       <c r="W371">
@@ -26242,7 +26241,7 @@
       <c r="U372" s="2">
         <v>0</v>
       </c>
-      <c r="V372" s="12">
+      <c r="V372" s="6">
         <v>0</v>
       </c>
       <c r="W372">
@@ -26313,7 +26312,7 @@
       <c r="U373" s="2">
         <v>0</v>
       </c>
-      <c r="V373" s="12">
+      <c r="V373" s="6">
         <v>0</v>
       </c>
       <c r="W373">
@@ -26384,7 +26383,7 @@
       <c r="U374" s="2">
         <v>0</v>
       </c>
-      <c r="V374" s="12">
+      <c r="V374" s="6">
         <v>0</v>
       </c>
       <c r="W374">
@@ -26455,7 +26454,7 @@
       <c r="U375" s="2">
         <v>0</v>
       </c>
-      <c r="V375" s="12">
+      <c r="V375" s="6">
         <v>0</v>
       </c>
       <c r="W375">
@@ -26526,7 +26525,7 @@
       <c r="U376" s="2">
         <v>0</v>
       </c>
-      <c r="V376" s="12">
+      <c r="V376" s="6">
         <v>0</v>
       </c>
       <c r="W376">
@@ -26597,7 +26596,7 @@
       <c r="U377" s="2">
         <v>0</v>
       </c>
-      <c r="V377" s="12">
+      <c r="V377" s="6">
         <v>0</v>
       </c>
       <c r="W377">
@@ -26668,7 +26667,7 @@
       <c r="U378" s="2">
         <v>0</v>
       </c>
-      <c r="V378" s="12">
+      <c r="V378" s="6">
         <v>0</v>
       </c>
       <c r="W378">
@@ -26739,7 +26738,7 @@
       <c r="U379" s="2">
         <v>0</v>
       </c>
-      <c r="V379" s="12">
+      <c r="V379" s="6">
         <v>0</v>
       </c>
       <c r="W379">
@@ -26810,7 +26809,7 @@
       <c r="U380" s="2">
         <v>0</v>
       </c>
-      <c r="V380" s="12">
+      <c r="V380" s="6">
         <v>0</v>
       </c>
       <c r="W380">
@@ -26881,7 +26880,7 @@
       <c r="U381" s="2">
         <v>0</v>
       </c>
-      <c r="V381" s="12">
+      <c r="V381" s="6">
         <v>0</v>
       </c>
       <c r="W381">
@@ -26952,7 +26951,7 @@
       <c r="U382" s="2">
         <v>0</v>
       </c>
-      <c r="V382" s="12">
+      <c r="V382" s="6">
         <v>0</v>
       </c>
       <c r="W382">
@@ -27023,7 +27022,7 @@
       <c r="U383" s="2">
         <v>0</v>
       </c>
-      <c r="V383" s="12">
+      <c r="V383" s="6">
         <v>0</v>
       </c>
       <c r="W383">
@@ -27094,7 +27093,7 @@
       <c r="U384" s="2">
         <v>0</v>
       </c>
-      <c r="V384" s="12">
+      <c r="V384" s="6">
         <v>0</v>
       </c>
       <c r="W384">
@@ -27165,7 +27164,7 @@
       <c r="U385" s="2">
         <v>0</v>
       </c>
-      <c r="V385" s="12">
+      <c r="V385" s="6">
         <v>0</v>
       </c>
       <c r="W385">
@@ -27236,7 +27235,7 @@
       <c r="U386" s="2">
         <v>0</v>
       </c>
-      <c r="V386" s="12">
+      <c r="V386" s="6">
         <v>0</v>
       </c>
       <c r="W386">
@@ -27307,7 +27306,7 @@
       <c r="U387" s="2">
         <v>0</v>
       </c>
-      <c r="V387" s="12">
+      <c r="V387" s="6">
         <v>0</v>
       </c>
       <c r="W387">
@@ -27378,7 +27377,7 @@
       <c r="U388" s="2">
         <v>0</v>
       </c>
-      <c r="V388" s="12">
+      <c r="V388" s="6">
         <v>0</v>
       </c>
       <c r="W388">
@@ -27449,7 +27448,7 @@
       <c r="U389" s="2">
         <v>0</v>
       </c>
-      <c r="V389" s="12">
+      <c r="V389" s="6">
         <v>0</v>
       </c>
       <c r="W389">
@@ -27520,7 +27519,7 @@
       <c r="U390" s="2">
         <v>0</v>
       </c>
-      <c r="V390" s="12">
+      <c r="V390" s="6">
         <v>0</v>
       </c>
       <c r="W390">
@@ -27591,7 +27590,7 @@
       <c r="U391" s="2">
         <v>0</v>
       </c>
-      <c r="V391" s="12">
+      <c r="V391" s="6">
         <v>0</v>
       </c>
       <c r="W391">
@@ -27662,7 +27661,7 @@
       <c r="U392" s="2">
         <v>0</v>
       </c>
-      <c r="V392" s="12">
+      <c r="V392" s="6">
         <v>0</v>
       </c>
       <c r="W392">
@@ -27733,7 +27732,7 @@
       <c r="U393" s="2">
         <v>0</v>
       </c>
-      <c r="V393" s="12">
+      <c r="V393" s="6">
         <v>0</v>
       </c>
       <c r="W393">
@@ -27804,7 +27803,7 @@
       <c r="U394" s="2">
         <v>0</v>
       </c>
-      <c r="V394" s="12">
+      <c r="V394" s="6">
         <v>0</v>
       </c>
       <c r="W394">
@@ -27875,7 +27874,7 @@
       <c r="U395" s="2">
         <v>0</v>
       </c>
-      <c r="V395" s="12">
+      <c r="V395" s="6">
         <v>0</v>
       </c>
       <c r="W395">
@@ -27946,7 +27945,7 @@
       <c r="U396" s="2">
         <v>0</v>
       </c>
-      <c r="V396" s="12">
+      <c r="V396" s="6">
         <v>0</v>
       </c>
       <c r="W396">
@@ -28017,7 +28016,7 @@
       <c r="U397" s="2">
         <v>0</v>
       </c>
-      <c r="V397" s="12">
+      <c r="V397" s="6">
         <v>0</v>
       </c>
       <c r="W397">
@@ -28088,7 +28087,7 @@
       <c r="U398" s="2">
         <v>0</v>
       </c>
-      <c r="V398" s="12">
+      <c r="V398" s="6">
         <v>0</v>
       </c>
       <c r="W398">
@@ -28159,7 +28158,7 @@
       <c r="U399" s="2">
         <v>0</v>
       </c>
-      <c r="V399" s="12">
+      <c r="V399" s="6">
         <v>0</v>
       </c>
       <c r="W399">
@@ -28230,7 +28229,7 @@
       <c r="U400" s="2">
         <v>0</v>
       </c>
-      <c r="V400" s="12">
+      <c r="V400" s="6">
         <v>0</v>
       </c>
       <c r="W400">
@@ -28301,7 +28300,7 @@
       <c r="U401" s="2">
         <v>0</v>
       </c>
-      <c r="V401" s="12">
+      <c r="V401" s="6">
         <v>0</v>
       </c>
       <c r="W401">
@@ -28372,7 +28371,7 @@
       <c r="U402" s="2">
         <v>0</v>
       </c>
-      <c r="V402" s="12">
+      <c r="V402" s="6">
         <v>0</v>
       </c>
       <c r="W402">
@@ -28443,7 +28442,7 @@
       <c r="U403" s="2">
         <v>0</v>
       </c>
-      <c r="V403" s="12">
+      <c r="V403" s="6">
         <v>0</v>
       </c>
       <c r="W403">
@@ -28514,7 +28513,7 @@
       <c r="U404" s="2">
         <v>0</v>
       </c>
-      <c r="V404" s="12">
+      <c r="V404" s="6">
         <v>0</v>
       </c>
       <c r="W404">
@@ -28585,7 +28584,7 @@
       <c r="U405" s="2">
         <v>0</v>
       </c>
-      <c r="V405" s="12">
+      <c r="V405" s="6">
         <v>0</v>
       </c>
       <c r="W405">
@@ -28656,7 +28655,7 @@
       <c r="U406" s="2">
         <v>0</v>
       </c>
-      <c r="V406" s="12">
+      <c r="V406" s="6">
         <v>0</v>
       </c>
       <c r="W406">
@@ -28727,7 +28726,7 @@
       <c r="U407" s="2">
         <v>0</v>
       </c>
-      <c r="V407" s="12">
+      <c r="V407" s="6">
         <v>0</v>
       </c>
       <c r="W407">
@@ -28798,7 +28797,7 @@
       <c r="U408" s="2">
         <v>0</v>
       </c>
-      <c r="V408" s="12">
+      <c r="V408" s="6">
         <v>0</v>
       </c>
       <c r="W408">
@@ -28869,7 +28868,7 @@
       <c r="U409" s="2">
         <v>0</v>
       </c>
-      <c r="V409" s="12">
+      <c r="V409" s="6">
         <v>0</v>
       </c>
       <c r="W409">
@@ -28940,7 +28939,7 @@
       <c r="U410" s="2">
         <v>0</v>
       </c>
-      <c r="V410" s="12">
+      <c r="V410" s="6">
         <v>0</v>
       </c>
       <c r="W410">
@@ -29011,7 +29010,7 @@
       <c r="U411" s="2">
         <v>0</v>
       </c>
-      <c r="V411" s="12">
+      <c r="V411" s="6">
         <v>0</v>
       </c>
       <c r="W411">
@@ -29082,7 +29081,7 @@
       <c r="U412" s="2">
         <v>8.2789999392804459E-2</v>
       </c>
-      <c r="V412" s="12">
+      <c r="V412" s="6">
         <v>0</v>
       </c>
       <c r="W412">
@@ -29153,7 +29152,7 @@
       <c r="U413" s="2">
         <v>0.16557999965303111</v>
       </c>
-      <c r="V413" s="12">
+      <c r="V413" s="6">
         <v>0</v>
       </c>
       <c r="W413">
@@ -29224,7 +29223,7 @@
       <c r="U414" s="2">
         <v>0.24836999991325776</v>
       </c>
-      <c r="V414" s="12">
+      <c r="V414" s="6">
         <v>0</v>
       </c>
       <c r="W414">
@@ -29295,7 +29294,7 @@
       <c r="U415" s="2">
         <v>0.3311600001734844</v>
       </c>
-      <c r="V415" s="12">
+      <c r="V415" s="6">
         <v>0</v>
       </c>
       <c r="W415">
@@ -29366,7 +29365,7 @@
       <c r="U416" s="2">
         <v>0.41394999956628886</v>
       </c>
-      <c r="V416" s="12">
+      <c r="V416" s="6">
         <v>0</v>
       </c>
       <c r="W416">
@@ -29437,7 +29436,7 @@
       <c r="U417" s="2">
         <v>0.49673999982651551</v>
       </c>
-      <c r="V417" s="12">
+      <c r="V417" s="6">
         <v>0</v>
       </c>
       <c r="W417">
@@ -29508,7 +29507,7 @@
       <c r="U418" s="2">
         <v>0.57953000008674227</v>
       </c>
-      <c r="V418" s="12">
+      <c r="V418" s="6">
         <v>0</v>
       </c>
       <c r="W418">
@@ -29579,7 +29578,7 @@
       <c r="U419" s="2">
         <v>0.66231999947954667</v>
       </c>
-      <c r="V419" s="12">
+      <c r="V419" s="6">
         <v>0</v>
       </c>
       <c r="W419">
@@ -29650,7 +29649,7 @@
       <c r="U420" s="2">
         <v>0.74510999973977332</v>
       </c>
-      <c r="V420" s="12">
+      <c r="V420" s="6">
         <v>0</v>
       </c>
       <c r="W420">
@@ -29721,7 +29720,7 @@
       <c r="U421" s="2">
         <v>0.82789999999999997</v>
       </c>
-      <c r="V421" s="12">
+      <c r="V421" s="6">
         <v>0</v>
       </c>
       <c r="W421">
@@ -29792,7 +29791,7 @@
       <c r="U422" s="2">
         <v>0.79863000021467101</v>
       </c>
-      <c r="V422" s="12">
+      <c r="V422" s="6">
         <v>0</v>
       </c>
       <c r="W422">
@@ -29863,7 +29862,7 @@
       <c r="U423" s="2">
         <v>0.76936000012266914</v>
       </c>
-      <c r="V423" s="12">
+      <c r="V423" s="6">
         <v>0</v>
       </c>
       <c r="W423">
@@ -29934,7 +29933,7 @@
       <c r="U424" s="2">
         <v>0.74009000003066727</v>
       </c>
-      <c r="V424" s="12">
+      <c r="V424" s="6">
         <v>0</v>
       </c>
       <c r="W424">
@@ -30005,7 +30004,7 @@
       <c r="U425" s="2">
         <v>0.71082000024533831</v>
       </c>
-      <c r="V425" s="12">
+      <c r="V425" s="6">
         <v>0</v>
       </c>
       <c r="W425">
@@ -30076,7 +30075,7 @@
       <c r="U426" s="2">
         <v>0.68155000015333644</v>
       </c>
-      <c r="V426" s="12">
+      <c r="V426" s="6">
         <v>0</v>
       </c>
       <c r="W426">
@@ -30147,7 +30146,7 @@
       <c r="U427" s="2">
         <v>0.65228000006133458</v>
       </c>
-      <c r="V427" s="12">
+      <c r="V427" s="6">
         <v>0</v>
       </c>
       <c r="W427">
@@ -30218,7 +30217,7 @@
       <c r="U428" s="2">
         <v>0.62301000027600562</v>
       </c>
-      <c r="V428" s="12">
+      <c r="V428" s="6">
         <v>0</v>
       </c>
       <c r="W428">
@@ -30289,7 +30288,7 @@
       <c r="U429" s="2">
         <v>0.59374000018400375</v>
       </c>
-      <c r="V429" s="12">
+      <c r="V429" s="6">
         <v>0</v>
       </c>
       <c r="W429">
@@ -30360,7 +30359,7 @@
       <c r="U430" s="2">
         <v>0.56447000009200188</v>
       </c>
-      <c r="V430" s="12">
+      <c r="V430" s="6">
         <v>0</v>
       </c>
       <c r="W430">
@@ -30431,7 +30430,7 @@
       <c r="U431" s="2">
         <v>0.53520000000000001</v>
       </c>
-      <c r="V431" s="12">
+      <c r="V431" s="6">
         <v>0</v>
       </c>
       <c r="W431">
@@ -30502,7 +30501,7 @@
       <c r="U432" s="2">
         <v>0.53106000002602582</v>
       </c>
-      <c r="V432" s="12">
+      <c r="V432" s="6">
         <v>0</v>
       </c>
       <c r="W432">
@@ -30573,7 +30572,7 @@
       <c r="U433" s="2">
         <v>0.52692000000867523</v>
       </c>
-      <c r="V433" s="12">
+      <c r="V433" s="6">
         <v>0</v>
       </c>
       <c r="W433">
@@ -30644,7 +30643,7 @@
       <c r="U434" s="2">
         <v>0.52277999999132474</v>
       </c>
-      <c r="V434" s="12">
+      <c r="V434" s="6">
         <v>0</v>
       </c>
       <c r="W434">
@@ -30715,7 +30714,7 @@
       <c r="U435" s="2">
         <v>0.51864000001735056</v>
       </c>
-      <c r="V435" s="12">
+      <c r="V435" s="6">
         <v>0</v>
       </c>
       <c r="W435">
@@ -30786,7 +30785,7 @@
       <c r="U436" s="2">
         <v>0.51449999999999996</v>
       </c>
-      <c r="V436" s="12">
+      <c r="V436" s="6">
         <v>0</v>
       </c>
       <c r="W436">
@@ -30857,7 +30856,7 @@
       <c r="U437" s="2">
         <v>0.51035999998264947</v>
       </c>
-      <c r="V437" s="12">
+      <c r="V437" s="6">
         <v>0</v>
       </c>
       <c r="W437">
@@ -30928,7 +30927,7 @@
       <c r="U438" s="2">
         <v>0.50622000000867529</v>
       </c>
-      <c r="V438" s="12">
+      <c r="V438" s="6">
         <v>0</v>
       </c>
       <c r="W438">
@@ -30999,7 +30998,7 @@
       <c r="U439" s="2">
         <v>0.5020799999913248</v>
       </c>
-      <c r="V439" s="12">
+      <c r="V439" s="6">
         <v>0</v>
       </c>
       <c r="W439">
@@ -31070,7 +31069,7 @@
       <c r="U440" s="2">
         <v>0.4979399999739742</v>
       </c>
-      <c r="V440" s="12">
+      <c r="V440" s="6">
         <v>0</v>
       </c>
       <c r="W440">
@@ -31141,7 +31140,7 @@
       <c r="U441" s="2">
         <v>0.49380000000000002</v>
       </c>
-      <c r="V441" s="12">
+      <c r="V441" s="6">
         <v>0</v>
       </c>
       <c r="W441">
@@ -31212,7 +31211,7 @@
       <c r="U442" s="2">
         <v>0.44441999984478814</v>
       </c>
-      <c r="V442" s="12">
+      <c r="V442" s="6">
         <v>0</v>
       </c>
       <c r="W442">
@@ -31283,7 +31282,7 @@
       <c r="U443" s="2">
         <v>0.39503999968957626</v>
       </c>
-      <c r="V443" s="12">
+      <c r="V443" s="6">
         <v>0</v>
       </c>
       <c r="W443">
@@ -31354,7 +31353,7 @@
       <c r="U444" s="2">
         <v>0.34565999953436433</v>
       </c>
-      <c r="V444" s="12">
+      <c r="V444" s="6">
         <v>0</v>
       </c>
       <c r="W444">
@@ -31425,7 +31424,7 @@
       <c r="U445" s="2">
         <v>0.29627999989652543</v>
       </c>
-      <c r="V445" s="12">
+      <c r="V445" s="6">
         <v>0</v>
       </c>
       <c r="W445">
@@ -31496,7 +31495,7 @@
       <c r="U446" s="2">
         <v>0.24689999974131352</v>
       </c>
-      <c r="V446" s="12">
+      <c r="V446" s="6">
         <v>0</v>
       </c>
       <c r="W446">
@@ -31567,7 +31566,7 @@
       <c r="U447" s="2">
         <v>0.19751999958610161</v>
       </c>
-      <c r="V447" s="12">
+      <c r="V447" s="6">
         <v>0</v>
       </c>
       <c r="W447">
@@ -31638,7 +31637,7 @@
       <c r="U448" s="2">
         <v>0.14813999994826271</v>
       </c>
-      <c r="V448" s="12">
+      <c r="V448" s="6">
         <v>0</v>
       </c>
       <c r="W448">
@@ -31709,7 +31708,7 @@
       <c r="U449" s="2">
         <v>9.8759999793050834E-2</v>
       </c>
-      <c r="V449" s="12">
+      <c r="V449" s="6">
         <v>0</v>
       </c>
       <c r="W449">
@@ -31780,7 +31779,7 @@
       <c r="U450" s="2">
         <v>4.9379999637838901E-2</v>
       </c>
-      <c r="V450" s="12">
+      <c r="V450" s="6">
         <v>0</v>
       </c>
       <c r="W450">
@@ -31851,7 +31850,7 @@
       <c r="U451" s="2">
         <v>0</v>
       </c>
-      <c r="V451" s="12">
+      <c r="V451" s="6">
         <v>0</v>
       </c>
       <c r="W451">
@@ -31922,7 +31921,7 @@
       <c r="U452" s="2">
         <v>0</v>
       </c>
-      <c r="V452" s="12">
+      <c r="V452" s="6">
         <v>0</v>
       </c>
       <c r="W452">
@@ -31993,7 +31992,7 @@
       <c r="U453" s="2">
         <v>0</v>
       </c>
-      <c r="V453" s="12">
+      <c r="V453" s="6">
         <v>0</v>
       </c>
       <c r="W453">
@@ -32064,7 +32063,7 @@
       <c r="U454" s="2">
         <v>0</v>
       </c>
-      <c r="V454" s="12">
+      <c r="V454" s="6">
         <v>0</v>
       </c>
       <c r="W454">
@@ -32135,7 +32134,7 @@
       <c r="U455" s="2">
         <v>0</v>
       </c>
-      <c r="V455" s="12">
+      <c r="V455" s="6">
         <v>0</v>
       </c>
       <c r="W455">
@@ -32206,7 +32205,7 @@
       <c r="U456" s="2">
         <v>0</v>
       </c>
-      <c r="V456" s="12">
+      <c r="V456" s="6">
         <v>0</v>
       </c>
       <c r="W456">
@@ -32277,7 +32276,7 @@
       <c r="U457" s="2">
         <v>0</v>
       </c>
-      <c r="V457" s="12">
+      <c r="V457" s="6">
         <v>0</v>
       </c>
       <c r="W457">
@@ -32348,7 +32347,7 @@
       <c r="U458" s="2">
         <v>0</v>
       </c>
-      <c r="V458" s="12">
+      <c r="V458" s="6">
         <v>0</v>
       </c>
       <c r="W458">
@@ -32419,7 +32418,7 @@
       <c r="U459" s="2">
         <v>0</v>
       </c>
-      <c r="V459" s="12">
+      <c r="V459" s="6">
         <v>0</v>
       </c>
       <c r="W459">
@@ -32490,7 +32489,7 @@
       <c r="U460" s="2">
         <v>0</v>
       </c>
-      <c r="V460" s="12">
+      <c r="V460" s="6">
         <v>0</v>
       </c>
       <c r="W460">
@@ -32561,7 +32560,7 @@
       <c r="U461" s="2">
         <v>0</v>
       </c>
-      <c r="V461" s="12">
+      <c r="V461" s="6">
         <v>0</v>
       </c>
       <c r="W461">
@@ -32632,7 +32631,7 @@
       <c r="U462" s="2">
         <v>0</v>
       </c>
-      <c r="V462" s="12">
+      <c r="V462" s="6">
         <v>0</v>
       </c>
       <c r="W462">
@@ -32703,7 +32702,7 @@
       <c r="U463" s="2">
         <v>0</v>
       </c>
-      <c r="V463" s="12">
+      <c r="V463" s="6">
         <v>0</v>
       </c>
       <c r="W463">
@@ -32774,7 +32773,7 @@
       <c r="U464" s="2">
         <v>0</v>
       </c>
-      <c r="V464" s="12">
+      <c r="V464" s="6">
         <v>0</v>
       </c>
       <c r="W464">
@@ -32845,7 +32844,7 @@
       <c r="U465" s="2">
         <v>0</v>
       </c>
-      <c r="V465" s="12">
+      <c r="V465" s="6">
         <v>0</v>
       </c>
       <c r="W465">
@@ -32916,7 +32915,7 @@
       <c r="U466" s="2">
         <v>0</v>
       </c>
-      <c r="V466" s="12">
+      <c r="V466" s="6">
         <v>0</v>
       </c>
       <c r="W466">
@@ -32987,7 +32986,7 @@
       <c r="U467" s="2">
         <v>0</v>
       </c>
-      <c r="V467" s="12">
+      <c r="V467" s="6">
         <v>0</v>
       </c>
       <c r="W467">
@@ -33058,7 +33057,7 @@
       <c r="U468" s="2">
         <v>0</v>
       </c>
-      <c r="V468" s="12">
+      <c r="V468" s="6">
         <v>0</v>
       </c>
       <c r="W468">
@@ -33129,7 +33128,7 @@
       <c r="U469" s="2">
         <v>0</v>
       </c>
-      <c r="V469" s="12">
+      <c r="V469" s="6">
         <v>0</v>
       </c>
       <c r="W469">
@@ -33200,7 +33199,7 @@
       <c r="U470" s="2">
         <v>0</v>
       </c>
-      <c r="V470" s="12">
+      <c r="V470" s="6">
         <v>0</v>
       </c>
       <c r="W470">
@@ -33271,7 +33270,7 @@
       <c r="U471" s="2">
         <v>0</v>
       </c>
-      <c r="V471" s="12">
+      <c r="V471" s="6">
         <v>0</v>
       </c>
       <c r="W471">
@@ -33342,7 +33341,7 @@
       <c r="U472" s="2">
         <v>0</v>
       </c>
-      <c r="V472" s="12">
+      <c r="V472" s="6">
         <v>0</v>
       </c>
       <c r="W472">
@@ -33413,7 +33412,7 @@
       <c r="U473" s="2">
         <v>0</v>
       </c>
-      <c r="V473" s="12">
+      <c r="V473" s="6">
         <v>0</v>
       </c>
       <c r="W473">
@@ -33484,7 +33483,7 @@
       <c r="U474" s="2">
         <v>0</v>
       </c>
-      <c r="V474" s="12">
+      <c r="V474" s="6">
         <v>0</v>
       </c>
       <c r="W474">
@@ -33555,7 +33554,7 @@
       <c r="U475" s="2">
         <v>0</v>
       </c>
-      <c r="V475" s="12">
+      <c r="V475" s="6">
         <v>0</v>
       </c>
       <c r="W475">
@@ -33626,7 +33625,7 @@
       <c r="U476" s="2">
         <v>0</v>
       </c>
-      <c r="V476" s="12">
+      <c r="V476" s="6">
         <v>0</v>
       </c>
       <c r="W476">
@@ -33697,7 +33696,7 @@
       <c r="U477" s="2">
         <v>0</v>
       </c>
-      <c r="V477" s="12">
+      <c r="V477" s="6">
         <v>0</v>
       </c>
       <c r="W477">
@@ -33768,7 +33767,7 @@
       <c r="U478" s="2">
         <v>0</v>
       </c>
-      <c r="V478" s="12">
+      <c r="V478" s="6">
         <v>0</v>
       </c>
       <c r="W478">
@@ -33839,7 +33838,7 @@
       <c r="U479" s="2">
         <v>0</v>
       </c>
-      <c r="V479" s="12">
+      <c r="V479" s="6">
         <v>0</v>
       </c>
       <c r="W479">
@@ -33910,7 +33909,7 @@
       <c r="U480" s="2">
         <v>0</v>
       </c>
-      <c r="V480" s="12">
+      <c r="V480" s="6">
         <v>0</v>
       </c>
       <c r="W480">
@@ -33981,7 +33980,7 @@
       <c r="U481" s="2">
         <v>0</v>
       </c>
-      <c r="V481" s="12">
+      <c r="V481" s="6">
         <v>0</v>
       </c>
       <c r="W481">
@@ -34052,7 +34051,7 @@
       <c r="U482" s="2">
         <v>0</v>
       </c>
-      <c r="V482" s="12">
+      <c r="V482" s="6">
         <v>0</v>
       </c>
       <c r="W482">
@@ -34123,7 +34122,7 @@
       <c r="U483" s="2">
         <v>0</v>
       </c>
-      <c r="V483" s="12">
+      <c r="V483" s="6">
         <v>0</v>
       </c>
       <c r="W483">
@@ -34194,7 +34193,7 @@
       <c r="U484" s="2">
         <v>0</v>
       </c>
-      <c r="V484" s="12">
+      <c r="V484" s="6">
         <v>0</v>
       </c>
       <c r="W484">
@@ -34265,7 +34264,7 @@
       <c r="U485" s="2">
         <v>0</v>
       </c>
-      <c r="V485" s="12">
+      <c r="V485" s="6">
         <v>0</v>
       </c>
       <c r="W485">
@@ -34336,7 +34335,7 @@
       <c r="U486" s="2">
         <v>0</v>
       </c>
-      <c r="V486" s="12">
+      <c r="V486" s="6">
         <v>0</v>
       </c>
       <c r="W486">
@@ -34407,7 +34406,7 @@
       <c r="U487" s="2">
         <v>0</v>
       </c>
-      <c r="V487" s="12">
+      <c r="V487" s="6">
         <v>0</v>
       </c>
       <c r="W487">
@@ -34478,7 +34477,7 @@
       <c r="U488" s="2">
         <v>0</v>
       </c>
-      <c r="V488" s="12">
+      <c r="V488" s="6">
         <v>0</v>
       </c>
       <c r="W488">
@@ -34549,7 +34548,7 @@
       <c r="U489" s="2">
         <v>0</v>
       </c>
-      <c r="V489" s="12">
+      <c r="V489" s="6">
         <v>0</v>
       </c>
       <c r="W489">
@@ -34620,7 +34619,7 @@
       <c r="U490" s="2">
         <v>0</v>
       </c>
-      <c r="V490" s="12">
+      <c r="V490" s="6">
         <v>0</v>
       </c>
       <c r="W490">
@@ -34691,7 +34690,7 @@
       <c r="U491" s="2">
         <v>0</v>
       </c>
-      <c r="V491" s="12">
+      <c r="V491" s="6">
         <v>0</v>
       </c>
       <c r="W491">
@@ -34762,7 +34761,7 @@
       <c r="U492" s="2">
         <v>0</v>
       </c>
-      <c r="V492" s="12">
+      <c r="V492" s="6">
         <v>0</v>
       </c>
       <c r="W492">
@@ -34833,7 +34832,7 @@
       <c r="U493" s="2">
         <v>0</v>
       </c>
-      <c r="V493" s="12">
+      <c r="V493" s="6">
         <v>0</v>
       </c>
       <c r="W493">
@@ -34904,7 +34903,7 @@
       <c r="U494" s="2">
         <v>0</v>
       </c>
-      <c r="V494" s="12">
+      <c r="V494" s="6">
         <v>0</v>
       </c>
       <c r="W494">
@@ -34975,7 +34974,7 @@
       <c r="U495" s="2">
         <v>0</v>
       </c>
-      <c r="V495" s="12">
+      <c r="V495" s="6">
         <v>0</v>
       </c>
       <c r="W495">
@@ -35046,7 +35045,7 @@
       <c r="U496" s="2">
         <v>0</v>
       </c>
-      <c r="V496" s="12">
+      <c r="V496" s="6">
         <v>0</v>
       </c>
       <c r="W496">
@@ -35117,7 +35116,7 @@
       <c r="U497" s="2">
         <v>0</v>
       </c>
-      <c r="V497" s="12">
+      <c r="V497" s="6">
         <v>0</v>
       </c>
       <c r="W497">
@@ -35188,7 +35187,7 @@
       <c r="U498" s="2">
         <v>0</v>
       </c>
-      <c r="V498" s="12">
+      <c r="V498" s="6">
         <v>0</v>
       </c>
       <c r="W498">
@@ -35259,7 +35258,7 @@
       <c r="U499" s="2">
         <v>0</v>
       </c>
-      <c r="V499" s="12">
+      <c r="V499" s="6">
         <v>0</v>
       </c>
       <c r="W499">
@@ -35330,7 +35329,7 @@
       <c r="U500" s="2">
         <v>0</v>
       </c>
-      <c r="V500" s="12">
+      <c r="V500" s="6">
         <v>0</v>
       </c>
       <c r="W500">
@@ -35401,7 +35400,7 @@
       <c r="U501" s="2">
         <v>0</v>
       </c>
-      <c r="V501" s="12">
+      <c r="V501" s="6">
         <v>0</v>
       </c>
       <c r="W501">
@@ -35472,7 +35471,7 @@
       <c r="U502" s="2">
         <v>0</v>
       </c>
-      <c r="V502" s="12">
+      <c r="V502" s="6">
         <v>0</v>
       </c>
       <c r="W502">
@@ -35543,7 +35542,7 @@
       <c r="U503" s="2">
         <v>0</v>
       </c>
-      <c r="V503" s="12">
+      <c r="V503" s="6">
         <v>0</v>
       </c>
       <c r="W503">
@@ -35614,7 +35613,7 @@
       <c r="U504" s="2">
         <v>0</v>
       </c>
-      <c r="V504" s="12">
+      <c r="V504" s="6">
         <v>0</v>
       </c>
       <c r="W504">
@@ -35685,7 +35684,7 @@
       <c r="U505" s="2">
         <v>0</v>
       </c>
-      <c r="V505" s="12">
+      <c r="V505" s="6">
         <v>0</v>
       </c>
       <c r="W505">
@@ -35756,7 +35755,7 @@
       <c r="U506" s="2">
         <v>0</v>
       </c>
-      <c r="V506" s="12">
+      <c r="V506" s="6">
         <v>0</v>
       </c>
       <c r="W506">
@@ -35827,7 +35826,7 @@
       <c r="U507" s="2">
         <v>0</v>
       </c>
-      <c r="V507" s="12">
+      <c r="V507" s="6">
         <v>0</v>
       </c>
       <c r="W507">
@@ -35898,7 +35897,7 @@
       <c r="U508" s="2">
         <v>0</v>
       </c>
-      <c r="V508" s="12">
+      <c r="V508" s="6">
         <v>0</v>
       </c>
       <c r="W508">
@@ -35969,7 +35968,7 @@
       <c r="U509" s="2">
         <v>0</v>
       </c>
-      <c r="V509" s="12">
+      <c r="V509" s="6">
         <v>0</v>
       </c>
       <c r="W509">
@@ -36040,7 +36039,7 @@
       <c r="U510" s="2">
         <v>0</v>
       </c>
-      <c r="V510" s="12">
+      <c r="V510" s="6">
         <v>0</v>
       </c>
       <c r="W510">
@@ -36111,7 +36110,7 @@
       <c r="U511" s="2">
         <v>0</v>
       </c>
-      <c r="V511" s="12">
+      <c r="V511" s="6">
         <v>0</v>
       </c>
       <c r="W511">
@@ -36182,7 +36181,7 @@
       <c r="U512" s="2">
         <v>0</v>
       </c>
-      <c r="V512" s="12">
+      <c r="V512" s="6">
         <v>0</v>
       </c>
       <c r="W512">
@@ -36253,7 +36252,7 @@
       <c r="U513" s="2">
         <v>0</v>
       </c>
-      <c r="V513" s="12">
+      <c r="V513" s="6">
         <v>0</v>
       </c>
       <c r="W513">
@@ -36324,7 +36323,7 @@
       <c r="U514" s="2">
         <v>0</v>
       </c>
-      <c r="V514" s="12">
+      <c r="V514" s="6">
         <v>0</v>
       </c>
       <c r="W514">
@@ -36395,7 +36394,7 @@
       <c r="U515" s="2">
         <v>0</v>
       </c>
-      <c r="V515" s="12">
+      <c r="V515" s="6">
         <v>0</v>
       </c>
       <c r="W515">
@@ -36466,7 +36465,7 @@
       <c r="U516" s="2">
         <v>0</v>
       </c>
-      <c r="V516" s="12">
+      <c r="V516" s="6">
         <v>0</v>
       </c>
       <c r="W516">
@@ -36537,7 +36536,7 @@
       <c r="U517" s="2">
         <v>0</v>
       </c>
-      <c r="V517" s="12">
+      <c r="V517" s="6">
         <v>0</v>
       </c>
       <c r="W517">
@@ -36608,7 +36607,7 @@
       <c r="U518" s="2">
         <v>0</v>
       </c>
-      <c r="V518" s="12">
+      <c r="V518" s="6">
         <v>0</v>
       </c>
       <c r="W518">
@@ -36679,7 +36678,7 @@
       <c r="U519" s="2">
         <v>0</v>
       </c>
-      <c r="V519" s="12">
+      <c r="V519" s="6">
         <v>0</v>
       </c>
       <c r="W519">
@@ -36750,7 +36749,7 @@
       <c r="U520" s="2">
         <v>0</v>
       </c>
-      <c r="V520" s="12">
+      <c r="V520" s="6">
         <v>0</v>
       </c>
       <c r="W520">
@@ -36821,7 +36820,7 @@
       <c r="U521" s="2">
         <v>0</v>
       </c>
-      <c r="V521" s="12">
+      <c r="V521" s="6">
         <v>0</v>
       </c>
       <c r="W521">
@@ -36892,7 +36891,7 @@
       <c r="U522" s="2">
         <v>0</v>
       </c>
-      <c r="V522" s="12">
+      <c r="V522" s="6">
         <v>0</v>
       </c>
       <c r="W522">
@@ -36963,7 +36962,7 @@
       <c r="U523" s="2">
         <v>0</v>
       </c>
-      <c r="V523" s="12">
+      <c r="V523" s="6">
         <v>0</v>
       </c>
       <c r="W523">
@@ -37034,7 +37033,7 @@
       <c r="U524" s="2">
         <v>0</v>
       </c>
-      <c r="V524" s="12">
+      <c r="V524" s="6">
         <v>0</v>
       </c>
       <c r="W524">
@@ -37105,7 +37104,7 @@
       <c r="U525" s="2">
         <v>0</v>
       </c>
-      <c r="V525" s="12">
+      <c r="V525" s="6">
         <v>0</v>
       </c>
       <c r="W525">
@@ -37176,7 +37175,7 @@
       <c r="U526" s="2">
         <v>0</v>
       </c>
-      <c r="V526" s="12">
+      <c r="V526" s="6">
         <v>0</v>
       </c>
       <c r="W526">
@@ -37247,7 +37246,7 @@
       <c r="U527" s="2">
         <v>0</v>
       </c>
-      <c r="V527" s="12">
+      <c r="V527" s="6">
         <v>0</v>
       </c>
       <c r="W527">
@@ -37318,7 +37317,7 @@
       <c r="U528" s="2">
         <v>0</v>
       </c>
-      <c r="V528" s="12">
+      <c r="V528" s="6">
         <v>0</v>
       </c>
       <c r="W528">
@@ -37389,7 +37388,7 @@
       <c r="U529" s="2">
         <v>0</v>
       </c>
-      <c r="V529" s="12">
+      <c r="V529" s="6">
         <v>0</v>
       </c>
       <c r="W529">
@@ -37460,7 +37459,7 @@
       <c r="U530" s="2">
         <v>0</v>
       </c>
-      <c r="V530" s="12">
+      <c r="V530" s="6">
         <v>0</v>
       </c>
       <c r="W530">
@@ -37531,7 +37530,7 @@
       <c r="U531" s="2">
         <v>0</v>
       </c>
-      <c r="V531" s="12">
+      <c r="V531" s="6">
         <v>0</v>
       </c>
       <c r="W531">
@@ -37602,7 +37601,7 @@
       <c r="U532" s="2">
         <v>0</v>
       </c>
-      <c r="V532" s="12">
+      <c r="V532" s="6">
         <v>0</v>
       </c>
       <c r="W532">
@@ -37673,7 +37672,7 @@
       <c r="U533" s="2">
         <v>0</v>
       </c>
-      <c r="V533" s="12">
+      <c r="V533" s="6">
         <v>0</v>
       </c>
       <c r="W533">
@@ -37744,7 +37743,7 @@
       <c r="U534" s="2">
         <v>0</v>
       </c>
-      <c r="V534" s="12">
+      <c r="V534" s="6">
         <v>0</v>
       </c>
       <c r="W534">
@@ -37815,7 +37814,7 @@
       <c r="U535" s="2">
         <v>0</v>
       </c>
-      <c r="V535" s="12">
+      <c r="V535" s="6">
         <v>0</v>
       </c>
       <c r="W535">
@@ -37886,7 +37885,7 @@
       <c r="U536" s="2">
         <v>0</v>
       </c>
-      <c r="V536" s="12">
+      <c r="V536" s="6">
         <v>0</v>
       </c>
       <c r="W536">
@@ -37957,7 +37956,7 @@
       <c r="U537" s="2">
         <v>0</v>
       </c>
-      <c r="V537" s="12">
+      <c r="V537" s="6">
         <v>0</v>
       </c>
       <c r="W537">
@@ -38028,7 +38027,7 @@
       <c r="U538" s="2">
         <v>0</v>
       </c>
-      <c r="V538" s="12">
+      <c r="V538" s="6">
         <v>0</v>
       </c>
       <c r="W538">
@@ -38099,7 +38098,7 @@
       <c r="U539" s="2">
         <v>0</v>
       </c>
-      <c r="V539" s="12">
+      <c r="V539" s="6">
         <v>0</v>
       </c>
       <c r="W539">
@@ -38170,7 +38169,7 @@
       <c r="U540" s="2">
         <v>0</v>
       </c>
-      <c r="V540" s="12">
+      <c r="V540" s="6">
         <v>0</v>
       </c>
       <c r="W540">
@@ -38241,7 +38240,7 @@
       <c r="U541" s="2">
         <v>0</v>
       </c>
-      <c r="V541" s="12">
+      <c r="V541" s="6">
         <v>0</v>
       </c>
       <c r="W541">
@@ -38312,7 +38311,7 @@
       <c r="U542" s="2">
         <v>0</v>
       </c>
-      <c r="V542" s="12">
+      <c r="V542" s="6">
         <v>0</v>
       </c>
       <c r="W542">
@@ -38383,7 +38382,7 @@
       <c r="U543" s="2">
         <v>0</v>
       </c>
-      <c r="V543" s="12">
+      <c r="V543" s="6">
         <v>0</v>
       </c>
       <c r="W543">
@@ -38454,7 +38453,7 @@
       <c r="U544" s="2">
         <v>0</v>
       </c>
-      <c r="V544" s="12">
+      <c r="V544" s="6">
         <v>0</v>
       </c>
       <c r="W544">
@@ -38525,7 +38524,7 @@
       <c r="U545" s="2">
         <v>0</v>
       </c>
-      <c r="V545" s="12">
+      <c r="V545" s="6">
         <v>0</v>
       </c>
       <c r="W545">
@@ -38596,7 +38595,7 @@
       <c r="U546" s="2">
         <v>0</v>
       </c>
-      <c r="V546" s="12">
+      <c r="V546" s="6">
         <v>0</v>
       </c>
       <c r="W546">
@@ -38667,7 +38666,7 @@
       <c r="U547" s="2">
         <v>0</v>
       </c>
-      <c r="V547" s="12">
+      <c r="V547" s="6">
         <v>0</v>
       </c>
       <c r="W547">
@@ -38738,7 +38737,7 @@
       <c r="U548" s="2">
         <v>0</v>
       </c>
-      <c r="V548" s="12">
+      <c r="V548" s="6">
         <v>0</v>
       </c>
       <c r="W548">
@@ -38809,7 +38808,7 @@
       <c r="U549" s="2">
         <v>0</v>
       </c>
-      <c r="V549" s="12">
+      <c r="V549" s="6">
         <v>0</v>
       </c>
       <c r="W549">
@@ -38880,7 +38879,7 @@
       <c r="U550" s="2">
         <v>0</v>
       </c>
-      <c r="V550" s="12">
+      <c r="V550" s="6">
         <v>0</v>
       </c>
       <c r="W550">
@@ -38951,7 +38950,7 @@
       <c r="U551" s="2">
         <v>0</v>
       </c>
-      <c r="V551" s="12">
+      <c r="V551" s="6">
         <v>0</v>
       </c>
       <c r="W551">
@@ -39022,7 +39021,7 @@
       <c r="U552" s="2">
         <v>0</v>
       </c>
-      <c r="V552" s="12">
+      <c r="V552" s="6">
         <v>0</v>
       </c>
       <c r="W552">
@@ -39093,7 +39092,7 @@
       <c r="U553" s="2">
         <v>0</v>
       </c>
-      <c r="V553" s="12">
+      <c r="V553" s="6">
         <v>0</v>
       </c>
       <c r="W553">
@@ -39164,7 +39163,7 @@
       <c r="U554" s="2">
         <v>0</v>
       </c>
-      <c r="V554" s="12">
+      <c r="V554" s="6">
         <v>0</v>
       </c>
       <c r="W554">
@@ -39235,7 +39234,7 @@
       <c r="U555" s="2">
         <v>0</v>
       </c>
-      <c r="V555" s="12">
+      <c r="V555" s="6">
         <v>0</v>
       </c>
       <c r="W555">
@@ -39306,7 +39305,7 @@
       <c r="U556" s="2">
         <v>0</v>
       </c>
-      <c r="V556" s="12">
+      <c r="V556" s="6">
         <v>0</v>
       </c>
       <c r="W556">
@@ -39377,7 +39376,7 @@
       <c r="U557" s="2">
         <v>0</v>
       </c>
-      <c r="V557" s="12">
+      <c r="V557" s="6">
         <v>0</v>
       </c>
       <c r="W557">
@@ -39448,7 +39447,7 @@
       <c r="U558" s="2">
         <v>0</v>
       </c>
-      <c r="V558" s="12">
+      <c r="V558" s="6">
         <v>0</v>
       </c>
       <c r="W558">
@@ -39519,7 +39518,7 @@
       <c r="U559" s="2">
         <v>0</v>
       </c>
-      <c r="V559" s="12">
+      <c r="V559" s="6">
         <v>0</v>
       </c>
       <c r="W559">
@@ -39590,7 +39589,7 @@
       <c r="U560" s="2">
         <v>0</v>
       </c>
-      <c r="V560" s="12">
+      <c r="V560" s="6">
         <v>0</v>
       </c>
       <c r="W560">
@@ -39661,7 +39660,7 @@
       <c r="U561" s="2">
         <v>0</v>
       </c>
-      <c r="V561" s="12">
+      <c r="V561" s="6">
         <v>0</v>
       </c>
       <c r="W561">
@@ -39732,7 +39731,7 @@
       <c r="U562" s="2">
         <v>0</v>
       </c>
-      <c r="V562" s="12">
+      <c r="V562" s="6">
         <v>0</v>
       </c>
       <c r="W562">
@@ -39803,7 +39802,7 @@
       <c r="U563" s="2">
         <v>0</v>
       </c>
-      <c r="V563" s="12">
+      <c r="V563" s="6">
         <v>0</v>
       </c>
       <c r="W563">
@@ -39874,7 +39873,7 @@
       <c r="U564" s="2">
         <v>0</v>
       </c>
-      <c r="V564" s="12">
+      <c r="V564" s="6">
         <v>0</v>
       </c>
       <c r="W564">
@@ -39945,7 +39944,7 @@
       <c r="U565" s="2">
         <v>0</v>
       </c>
-      <c r="V565" s="12">
+      <c r="V565" s="6">
         <v>0</v>
       </c>
       <c r="W565">
@@ -40016,7 +40015,7 @@
       <c r="U566" s="2">
         <v>0</v>
       </c>
-      <c r="V566" s="12">
+      <c r="V566" s="6">
         <v>0</v>
       </c>
       <c r="W566">
@@ -40087,7 +40086,7 @@
       <c r="U567" s="2">
         <v>0</v>
       </c>
-      <c r="V567" s="12">
+      <c r="V567" s="6">
         <v>0</v>
       </c>
       <c r="W567">
@@ -40158,7 +40157,7 @@
       <c r="U568" s="2">
         <v>0</v>
       </c>
-      <c r="V568" s="12">
+      <c r="V568" s="6">
         <v>0</v>
       </c>
       <c r="W568">
@@ -40229,7 +40228,7 @@
       <c r="U569" s="2">
         <v>0</v>
       </c>
-      <c r="V569" s="12">
+      <c r="V569" s="6">
         <v>0</v>
       </c>
       <c r="W569">
@@ -40300,7 +40299,7 @@
       <c r="U570" s="2">
         <v>0</v>
       </c>
-      <c r="V570" s="12">
+      <c r="V570" s="6">
         <v>0</v>
       </c>
       <c r="W570">
@@ -40371,7 +40370,7 @@
       <c r="U571" s="2">
         <v>0</v>
       </c>
-      <c r="V571" s="12">
+      <c r="V571" s="6">
         <v>0</v>
       </c>
       <c r="W571">
@@ -40442,7 +40441,7 @@
       <c r="U572" s="2">
         <v>0</v>
       </c>
-      <c r="V572" s="12">
+      <c r="V572" s="6">
         <v>0</v>
       </c>
       <c r="W572">
@@ -40513,7 +40512,7 @@
       <c r="U573" s="2">
         <v>0</v>
       </c>
-      <c r="V573" s="12">
+      <c r="V573" s="6">
         <v>0</v>
       </c>
       <c r="W573">
@@ -40584,7 +40583,7 @@
       <c r="U574" s="2">
         <v>0</v>
       </c>
-      <c r="V574" s="12">
+      <c r="V574" s="6">
         <v>0</v>
       </c>
       <c r="W574">
@@ -40655,7 +40654,7 @@
       <c r="U575" s="2">
         <v>0</v>
       </c>
-      <c r="V575" s="12">
+      <c r="V575" s="6">
         <v>0</v>
       </c>
       <c r="W575">
@@ -40724,7 +40723,7 @@
       <c r="U576" s="2">
         <v>0</v>
       </c>
-      <c r="V576" s="12">
+      <c r="V576" s="6">
         <v>0</v>
       </c>
       <c r="W576">
@@ -40793,7 +40792,7 @@
       <c r="U577" s="2">
         <v>0</v>
       </c>
-      <c r="V577" s="12">
+      <c r="V577" s="6">
         <v>0</v>
       </c>
       <c r="W577">
@@ -40862,7 +40861,7 @@
       <c r="U578" s="2">
         <v>0</v>
       </c>
-      <c r="V578" s="12">
+      <c r="V578" s="6">
         <v>0</v>
       </c>
       <c r="W578">
@@ -40931,7 +40930,7 @@
       <c r="U579" s="2">
         <v>0</v>
       </c>
-      <c r="V579" s="12">
+      <c r="V579" s="6">
         <v>0</v>
       </c>
       <c r="W579">
@@ -41000,7 +40999,7 @@
       <c r="U580" s="2">
         <v>0</v>
       </c>
-      <c r="V580" s="12">
+      <c r="V580" s="6">
         <v>0</v>
       </c>
       <c r="W580">
@@ -41069,7 +41068,7 @@
       <c r="U581" s="2">
         <v>0</v>
       </c>
-      <c r="V581" s="12">
+      <c r="V581" s="6">
         <v>0</v>
       </c>
       <c r="W581">
@@ -41138,7 +41137,7 @@
       <c r="U582" s="2">
         <v>0</v>
       </c>
-      <c r="V582" s="12">
+      <c r="V582" s="6">
         <v>0</v>
       </c>
       <c r="W582">
@@ -41207,7 +41206,7 @@
       <c r="U583" s="2">
         <v>0</v>
       </c>
-      <c r="V583" s="12">
+      <c r="V583" s="6">
         <v>0</v>
       </c>
       <c r="W583">
@@ -41276,7 +41275,7 @@
       <c r="U584" s="2">
         <v>0</v>
       </c>
-      <c r="V584" s="12">
+      <c r="V584" s="6">
         <v>0</v>
       </c>
       <c r="W584">
@@ -41345,7 +41344,7 @@
       <c r="U585" s="2">
         <v>0</v>
       </c>
-      <c r="V585" s="12">
+      <c r="V585" s="6">
         <v>0</v>
       </c>
       <c r="W585">
@@ -41414,7 +41413,7 @@
       <c r="U586" s="2">
         <v>0</v>
       </c>
-      <c r="V586" s="12">
+      <c r="V586" s="6">
         <v>0</v>
       </c>
       <c r="W586">
@@ -41483,7 +41482,7 @@
       <c r="U587" s="2">
         <v>0</v>
       </c>
-      <c r="V587" s="12">
+      <c r="V587" s="6">
         <v>0</v>
       </c>
       <c r="W587">
@@ -41552,7 +41551,7 @@
       <c r="U588" s="2">
         <v>0</v>
       </c>
-      <c r="V588" s="12">
+      <c r="V588" s="6">
         <v>0</v>
       </c>
       <c r="W588">
@@ -41621,7 +41620,7 @@
       <c r="U589" s="2">
         <v>0</v>
       </c>
-      <c r="V589" s="12">
+      <c r="V589" s="6">
         <v>0</v>
       </c>
       <c r="W589">
@@ -41690,7 +41689,7 @@
       <c r="U590" s="2">
         <v>0</v>
       </c>
-      <c r="V590" s="12">
+      <c r="V590" s="6">
         <v>0</v>
       </c>
       <c r="W590">
@@ -41759,7 +41758,7 @@
       <c r="U591" s="2">
         <v>0</v>
       </c>
-      <c r="V591" s="12">
+      <c r="V591" s="6">
         <v>0</v>
       </c>
       <c r="W591">
@@ -41828,7 +41827,7 @@
       <c r="U592" s="2">
         <v>0</v>
       </c>
-      <c r="V592" s="12">
+      <c r="V592" s="6">
         <v>0</v>
       </c>
       <c r="W592">
@@ -41897,7 +41896,7 @@
       <c r="U593" s="2">
         <v>0</v>
       </c>
-      <c r="V593" s="12">
+      <c r="V593" s="6">
         <v>0</v>
       </c>
       <c r="W593">
@@ -41966,7 +41965,7 @@
       <c r="U594" s="2">
         <v>0</v>
       </c>
-      <c r="V594" s="12">
+      <c r="V594" s="6">
         <v>0</v>
       </c>
       <c r="W594">
@@ -42035,7 +42034,7 @@
       <c r="U595" s="2">
         <v>0</v>
       </c>
-      <c r="V595" s="12">
+      <c r="V595" s="6">
         <v>0</v>
       </c>
       <c r="W595">
@@ -42104,7 +42103,7 @@
       <c r="U596" s="2">
         <v>0</v>
       </c>
-      <c r="V596" s="12">
+      <c r="V596" s="6">
         <v>0</v>
       </c>
       <c r="W596">
@@ -42173,7 +42172,7 @@
       <c r="U597" s="2">
         <v>0</v>
       </c>
-      <c r="V597" s="12">
+      <c r="V597" s="6">
         <v>0</v>
       </c>
       <c r="W597">
@@ -42242,7 +42241,7 @@
       <c r="U598" s="2">
         <v>0</v>
       </c>
-      <c r="V598" s="12">
+      <c r="V598" s="6">
         <v>0</v>
       </c>
       <c r="W598">
@@ -42311,7 +42310,7 @@
       <c r="U599" s="2">
         <v>0</v>
       </c>
-      <c r="V599" s="12">
+      <c r="V599" s="6">
         <v>0</v>
       </c>
       <c r="W599">
@@ -42380,7 +42379,7 @@
       <c r="U600" s="2">
         <v>0</v>
       </c>
-      <c r="V600" s="12">
+      <c r="V600" s="6">
         <v>0</v>
       </c>
       <c r="W600">
@@ -42449,7 +42448,7 @@
       <c r="U601" s="2">
         <v>0</v>
       </c>
-      <c r="V601" s="12">
+      <c r="V601" s="6">
         <v>0</v>
       </c>
       <c r="W601">
@@ -42518,7 +42517,7 @@
       <c r="U602" s="2">
         <v>0</v>
       </c>
-      <c r="V602" s="12">
+      <c r="V602" s="6">
         <v>0</v>
       </c>
       <c r="W602">
@@ -42587,7 +42586,7 @@
       <c r="U603" s="2">
         <v>0</v>
       </c>
-      <c r="V603" s="12">
+      <c r="V603" s="6">
         <v>0</v>
       </c>
       <c r="W603">
@@ -42656,7 +42655,7 @@
       <c r="U604" s="2">
         <v>0</v>
       </c>
-      <c r="V604" s="12">
+      <c r="V604" s="6">
         <v>0</v>
       </c>
       <c r="W604">
@@ -42725,7 +42724,7 @@
       <c r="U605" s="2">
         <v>0</v>
       </c>
-      <c r="V605" s="12">
+      <c r="V605" s="6">
         <v>0</v>
       </c>
       <c r="W605">
@@ -42794,7 +42793,7 @@
       <c r="U606" s="2">
         <v>0</v>
       </c>
-      <c r="V606" s="12">
+      <c r="V606" s="6">
         <v>0</v>
       </c>
       <c r="W606">
@@ -42863,7 +42862,7 @@
       <c r="U607" s="2">
         <v>0</v>
       </c>
-      <c r="V607" s="12">
+      <c r="V607" s="6">
         <v>0</v>
       </c>
       <c r="W607">
@@ -42932,7 +42931,7 @@
       <c r="U608" s="2">
         <v>0</v>
       </c>
-      <c r="V608" s="12">
+      <c r="V608" s="6">
         <v>0</v>
       </c>
       <c r="W608">
@@ -43001,7 +43000,7 @@
       <c r="U609" s="2">
         <v>0</v>
       </c>
-      <c r="V609" s="12">
+      <c r="V609" s="6">
         <v>0</v>
       </c>
       <c r="W609">
@@ -43070,7 +43069,7 @@
       <c r="U610" s="2">
         <v>0</v>
       </c>
-      <c r="V610" s="12">
+      <c r="V610" s="6">
         <v>0</v>
       </c>
       <c r="W610">
@@ -43139,7 +43138,7 @@
       <c r="U611" s="2">
         <v>0</v>
       </c>
-      <c r="V611" s="12">
+      <c r="V611" s="6">
         <v>0</v>
       </c>
       <c r="W611">
@@ -43208,7 +43207,7 @@
       <c r="U612" s="2">
         <v>0</v>
       </c>
-      <c r="V612" s="12">
+      <c r="V612" s="6">
         <v>0</v>
       </c>
       <c r="W612">
@@ -43277,7 +43276,7 @@
       <c r="U613" s="2">
         <v>0</v>
       </c>
-      <c r="V613" s="12">
+      <c r="V613" s="6">
         <v>0</v>
       </c>
       <c r="W613">
@@ -43346,7 +43345,7 @@
       <c r="U614" s="2">
         <v>0</v>
       </c>
-      <c r="V614" s="12">
+      <c r="V614" s="6">
         <v>0</v>
       </c>
       <c r="W614">
@@ -43415,7 +43414,7 @@
       <c r="U615" s="2">
         <v>0</v>
       </c>
-      <c r="V615" s="12">
+      <c r="V615" s="6">
         <v>0</v>
       </c>
       <c r="W615">
@@ -43484,7 +43483,7 @@
       <c r="U616" s="2">
         <v>0</v>
       </c>
-      <c r="V616" s="12">
+      <c r="V616" s="6">
         <v>0</v>
       </c>
       <c r="W616">
@@ -43553,7 +43552,7 @@
       <c r="U617" s="2">
         <v>0</v>
       </c>
-      <c r="V617" s="12">
+      <c r="V617" s="6">
         <v>0</v>
       </c>
       <c r="W617">
@@ -43622,7 +43621,7 @@
       <c r="U618" s="2">
         <v>0</v>
       </c>
-      <c r="V618" s="12">
+      <c r="V618" s="6">
         <v>0</v>
       </c>
       <c r="W618">
@@ -43691,7 +43690,7 @@
       <c r="U619" s="2">
         <v>0</v>
       </c>
-      <c r="V619" s="12">
+      <c r="V619" s="6">
         <v>0</v>
       </c>
       <c r="W619">
@@ -43760,7 +43759,7 @@
       <c r="U620" s="2">
         <v>0</v>
       </c>
-      <c r="V620" s="12">
+      <c r="V620" s="6">
         <v>0</v>
       </c>
       <c r="W620">
@@ -43829,7 +43828,7 @@
       <c r="U621" s="2">
         <v>0</v>
       </c>
-      <c r="V621" s="12">
+      <c r="V621" s="6">
         <v>0</v>
       </c>
       <c r="W621">
@@ -43898,7 +43897,7 @@
       <c r="U622" s="2">
         <v>0</v>
       </c>
-      <c r="V622" s="12">
+      <c r="V622" s="6">
         <v>0</v>
       </c>
       <c r="W622">
@@ -43967,7 +43966,7 @@
       <c r="U623" s="2">
         <v>0</v>
       </c>
-      <c r="V623" s="12">
+      <c r="V623" s="6">
         <v>0</v>
       </c>
       <c r="W623">
@@ -44036,7 +44035,7 @@
       <c r="U624" s="2">
         <v>0</v>
       </c>
-      <c r="V624" s="12">
+      <c r="V624" s="6">
         <v>0</v>
       </c>
       <c r="W624">
@@ -44105,7 +44104,7 @@
       <c r="U625" s="2">
         <v>0</v>
       </c>
-      <c r="V625" s="12">
+      <c r="V625" s="6">
         <v>0</v>
       </c>
       <c r="W625">
@@ -44174,7 +44173,7 @@
       <c r="U626" s="2">
         <v>0</v>
       </c>
-      <c r="V626" s="12">
+      <c r="V626" s="6">
         <v>0</v>
       </c>
       <c r="W626">
@@ -44243,7 +44242,7 @@
       <c r="U627" s="2">
         <v>0</v>
       </c>
-      <c r="V627" s="12">
+      <c r="V627" s="6">
         <v>0</v>
       </c>
       <c r="W627">
@@ -44312,7 +44311,7 @@
       <c r="U628" s="2">
         <v>0</v>
       </c>
-      <c r="V628" s="12">
+      <c r="V628" s="6">
         <v>0</v>
       </c>
       <c r="W628">
@@ -44381,7 +44380,7 @@
       <c r="U629" s="2">
         <v>0</v>
       </c>
-      <c r="V629" s="12">
+      <c r="V629" s="6">
         <v>0</v>
       </c>
       <c r="W629">
@@ -44450,7 +44449,7 @@
       <c r="U630" s="2">
         <v>0</v>
       </c>
-      <c r="V630" s="12">
+      <c r="V630" s="6">
         <v>0</v>
       </c>
       <c r="W630">
@@ -44519,7 +44518,7 @@
       <c r="U631" s="2">
         <v>0</v>
       </c>
-      <c r="V631" s="12">
+      <c r="V631" s="6">
         <v>0</v>
       </c>
       <c r="W631">
@@ -44588,7 +44587,7 @@
       <c r="U632" s="2">
         <v>0</v>
       </c>
-      <c r="V632" s="12">
+      <c r="V632" s="6">
         <v>0</v>
       </c>
       <c r="W632">
@@ -44657,7 +44656,7 @@
       <c r="U633" s="2">
         <v>0</v>
       </c>
-      <c r="V633" s="12">
+      <c r="V633" s="6">
         <v>0</v>
       </c>
       <c r="W633">
@@ -44726,7 +44725,7 @@
       <c r="U634" s="2">
         <v>0</v>
       </c>
-      <c r="V634" s="12">
+      <c r="V634" s="6">
         <v>0</v>
       </c>
       <c r="W634">
@@ -44795,7 +44794,7 @@
       <c r="U635" s="2">
         <v>0</v>
       </c>
-      <c r="V635" s="12">
+      <c r="V635" s="6">
         <v>0</v>
       </c>
       <c r="W635">
@@ -44864,7 +44863,7 @@
       <c r="U636" s="2">
         <v>0</v>
       </c>
-      <c r="V636" s="12">
+      <c r="V636" s="6">
         <v>0</v>
       </c>
       <c r="W636">
@@ -44933,7 +44932,7 @@
       <c r="U637" s="2">
         <v>0</v>
       </c>
-      <c r="V637" s="12">
+      <c r="V637" s="6">
         <v>0</v>
       </c>
       <c r="W637">
@@ -45002,7 +45001,7 @@
       <c r="U638" s="2">
         <v>0</v>
       </c>
-      <c r="V638" s="12">
+      <c r="V638" s="6">
         <v>0</v>
       </c>
       <c r="W638">
@@ -45071,7 +45070,7 @@
       <c r="U639" s="2">
         <v>0</v>
       </c>
-      <c r="V639" s="12">
+      <c r="V639" s="6">
         <v>0</v>
       </c>
       <c r="W639">
@@ -45140,7 +45139,7 @@
       <c r="U640" s="2">
         <v>0</v>
       </c>
-      <c r="V640" s="12">
+      <c r="V640" s="6">
         <v>0</v>
       </c>
       <c r="W640">
@@ -45209,7 +45208,7 @@
       <c r="U641" s="2">
         <v>0</v>
       </c>
-      <c r="V641" s="12">
+      <c r="V641" s="6">
         <v>0</v>
       </c>
       <c r="W641">
@@ -45278,7 +45277,7 @@
       <c r="U642" s="2">
         <v>0</v>
       </c>
-      <c r="V642" s="12">
+      <c r="V642" s="6">
         <v>0</v>
       </c>
       <c r="W642">
@@ -45347,7 +45346,7 @@
       <c r="U643" s="2">
         <v>0</v>
       </c>
-      <c r="V643" s="12">
+      <c r="V643" s="6">
         <v>0</v>
       </c>
       <c r="W643">
@@ -45416,7 +45415,7 @@
       <c r="U644" s="2">
         <v>0</v>
       </c>
-      <c r="V644" s="12">
+      <c r="V644" s="6">
         <v>0</v>
       </c>
       <c r="W644">
@@ -45485,7 +45484,7 @@
       <c r="U645" s="2">
         <v>0</v>
       </c>
-      <c r="V645" s="12">
+      <c r="V645" s="6">
         <v>0</v>
       </c>
       <c r="W645">
@@ -45554,7 +45553,7 @@
       <c r="U646" s="2">
         <v>0</v>
       </c>
-      <c r="V646" s="12">
+      <c r="V646" s="6">
         <v>0</v>
       </c>
       <c r="W646">
@@ -45623,7 +45622,7 @@
       <c r="U647" s="2">
         <v>0</v>
       </c>
-      <c r="V647" s="12">
+      <c r="V647" s="6">
         <v>0</v>
       </c>
       <c r="W647">
@@ -45692,7 +45691,7 @@
       <c r="U648" s="2">
         <v>0</v>
       </c>
-      <c r="V648" s="12">
+      <c r="V648" s="6">
         <v>0</v>
       </c>
       <c r="W648">
@@ -45761,7 +45760,7 @@
       <c r="U649" s="2">
         <v>0</v>
       </c>
-      <c r="V649" s="12">
+      <c r="V649" s="6">
         <v>0</v>
       </c>
       <c r="W649">
@@ -45830,7 +45829,7 @@
       <c r="U650" s="2">
         <v>0</v>
       </c>
-      <c r="V650" s="12">
+      <c r="V650" s="6">
         <v>0</v>
       </c>
       <c r="W650">
@@ -45899,7 +45898,7 @@
       <c r="U651" s="2">
         <v>0</v>
       </c>
-      <c r="V651" s="12">
+      <c r="V651" s="6">
         <v>0</v>
       </c>
       <c r="W651">
@@ -45968,7 +45967,7 @@
       <c r="U652" s="2">
         <v>0</v>
       </c>
-      <c r="V652" s="12">
+      <c r="V652" s="6">
         <v>0</v>
       </c>
       <c r="W652">
@@ -46037,7 +46036,7 @@
       <c r="U653" s="2">
         <v>0</v>
       </c>
-      <c r="V653" s="12">
+      <c r="V653" s="6">
         <v>0</v>
       </c>
       <c r="W653">
@@ -46106,7 +46105,7 @@
       <c r="U654" s="2">
         <v>0</v>
       </c>
-      <c r="V654" s="12">
+      <c r="V654" s="6">
         <v>0</v>
       </c>
       <c r="W654">
@@ -46175,7 +46174,7 @@
       <c r="U655" s="2">
         <v>0</v>
       </c>
-      <c r="V655" s="12">
+      <c r="V655" s="6">
         <v>0</v>
       </c>
       <c r="W655">
@@ -46244,7 +46243,7 @@
       <c r="U656" s="2">
         <v>0</v>
       </c>
-      <c r="V656" s="12">
+      <c r="V656" s="6">
         <v>0</v>
       </c>
       <c r="W656">
@@ -46313,7 +46312,7 @@
       <c r="U657" s="2">
         <v>0</v>
       </c>
-      <c r="V657" s="12">
+      <c r="V657" s="6">
         <v>0</v>
       </c>
       <c r="W657">
@@ -46382,7 +46381,7 @@
       <c r="U658" s="2">
         <v>0</v>
       </c>
-      <c r="V658" s="12">
+      <c r="V658" s="6">
         <v>0</v>
       </c>
       <c r="W658">
@@ -46451,7 +46450,7 @@
       <c r="U659" s="2">
         <v>0</v>
       </c>
-      <c r="V659" s="12">
+      <c r="V659" s="6">
         <v>0</v>
       </c>
       <c r="W659">
@@ -46520,7 +46519,7 @@
       <c r="U660" s="2">
         <v>0</v>
       </c>
-      <c r="V660" s="12">
+      <c r="V660" s="6">
         <v>0</v>
       </c>
       <c r="W660">
@@ -46589,7 +46588,7 @@
       <c r="U661" s="2">
         <v>0</v>
       </c>
-      <c r="V661" s="12">
+      <c r="V661" s="6">
         <v>0</v>
       </c>
       <c r="W661">
@@ -46658,7 +46657,7 @@
       <c r="U662" s="2">
         <v>0</v>
       </c>
-      <c r="V662" s="12">
+      <c r="V662" s="6">
         <v>0</v>
       </c>
       <c r="W662">
@@ -46727,7 +46726,7 @@
       <c r="U663" s="2">
         <v>0</v>
       </c>
-      <c r="V663" s="12">
+      <c r="V663" s="6">
         <v>0</v>
       </c>
       <c r="W663">
@@ -46796,7 +46795,7 @@
       <c r="U664" s="2">
         <v>0</v>
       </c>
-      <c r="V664" s="12">
+      <c r="V664" s="6">
         <v>0</v>
       </c>
       <c r="W664">
@@ -46865,7 +46864,7 @@
       <c r="U665" s="2">
         <v>0</v>
       </c>
-      <c r="V665" s="12">
+      <c r="V665" s="6">
         <v>0</v>
       </c>
       <c r="W665">
@@ -46934,7 +46933,7 @@
       <c r="U666" s="2">
         <v>0</v>
       </c>
-      <c r="V666" s="12">
+      <c r="V666" s="6">
         <v>0</v>
       </c>
       <c r="W666">
@@ -47003,7 +47002,7 @@
       <c r="U667" s="2">
         <v>0</v>
       </c>
-      <c r="V667" s="12">
+      <c r="V667" s="6">
         <v>0</v>
       </c>
       <c r="W667">
@@ -47072,7 +47071,7 @@
       <c r="U668" s="2">
         <v>0</v>
       </c>
-      <c r="V668" s="12">
+      <c r="V668" s="6">
         <v>0</v>
       </c>
       <c r="W668">
@@ -47141,7 +47140,7 @@
       <c r="U669" s="2">
         <v>0</v>
       </c>
-      <c r="V669" s="12">
+      <c r="V669" s="6">
         <v>0</v>
       </c>
       <c r="W669">
@@ -47210,7 +47209,7 @@
       <c r="U670" s="2">
         <v>0</v>
       </c>
-      <c r="V670" s="12">
+      <c r="V670" s="6">
         <v>0</v>
       </c>
       <c r="W670">
@@ -47279,7 +47278,7 @@
       <c r="U671" s="2">
         <v>0</v>
       </c>
-      <c r="V671" s="12">
+      <c r="V671" s="6">
         <v>0</v>
       </c>
       <c r="W671">
@@ -47348,7 +47347,7 @@
       <c r="U672" s="2">
         <v>0</v>
       </c>
-      <c r="V672" s="12">
+      <c r="V672" s="6">
         <v>0</v>
       </c>
       <c r="W672">
@@ -47417,7 +47416,7 @@
       <c r="U673" s="2">
         <v>0</v>
       </c>
-      <c r="V673" s="12">
+      <c r="V673" s="6">
         <v>0</v>
       </c>
       <c r="W673">
@@ -47486,7 +47485,7 @@
       <c r="U674" s="2">
         <v>0</v>
       </c>
-      <c r="V674" s="12">
+      <c r="V674" s="6">
         <v>0</v>
       </c>
       <c r="W674">
@@ -47555,7 +47554,7 @@
       <c r="U675" s="2">
         <v>0</v>
       </c>
-      <c r="V675" s="12">
+      <c r="V675" s="6">
         <v>0</v>
       </c>
       <c r="W675">
@@ -47624,7 +47623,7 @@
       <c r="U676" s="2">
         <v>0</v>
       </c>
-      <c r="V676" s="12">
+      <c r="V676" s="6">
         <v>0</v>
       </c>
       <c r="W676">
@@ -47693,7 +47692,7 @@
       <c r="U677" s="2">
         <v>0</v>
       </c>
-      <c r="V677" s="12">
+      <c r="V677" s="6">
         <v>0</v>
       </c>
       <c r="W677">
@@ -47762,7 +47761,7 @@
       <c r="U678" s="2">
         <v>0</v>
       </c>
-      <c r="V678" s="12">
+      <c r="V678" s="6">
         <v>0</v>
       </c>
       <c r="W678">
@@ -47831,7 +47830,7 @@
       <c r="U679" s="2">
         <v>0</v>
       </c>
-      <c r="V679" s="12">
+      <c r="V679" s="6">
         <v>0</v>
       </c>
       <c r="W679">
@@ -47900,7 +47899,7 @@
       <c r="U680" s="2">
         <v>0</v>
       </c>
-      <c r="V680" s="12">
+      <c r="V680" s="6">
         <v>0</v>
       </c>
       <c r="W680">
@@ -47969,7 +47968,7 @@
       <c r="U681" s="2">
         <v>0</v>
       </c>
-      <c r="V681" s="12">
+      <c r="V681" s="6">
         <v>0</v>
       </c>
       <c r="W681">
@@ -48038,7 +48037,7 @@
       <c r="U682" s="2">
         <v>0</v>
       </c>
-      <c r="V682" s="12">
+      <c r="V682" s="6">
         <v>0</v>
       </c>
       <c r="W682">
@@ -48107,7 +48106,7 @@
       <c r="U683" s="2">
         <v>0</v>
       </c>
-      <c r="V683" s="12">
+      <c r="V683" s="6">
         <v>0</v>
       </c>
       <c r="W683">
@@ -48176,7 +48175,7 @@
       <c r="U684" s="2">
         <v>0</v>
       </c>
-      <c r="V684" s="12">
+      <c r="V684" s="6">
         <v>0</v>
       </c>
       <c r="W684">
@@ -48245,7 +48244,7 @@
       <c r="U685" s="2">
         <v>0</v>
       </c>
-      <c r="V685" s="12">
+      <c r="V685" s="6">
         <v>0</v>
       </c>
       <c r="W685">
@@ -48314,7 +48313,7 @@
       <c r="U686" s="2">
         <v>0</v>
       </c>
-      <c r="V686" s="12">
+      <c r="V686" s="6">
         <v>0</v>
       </c>
       <c r="W686">
@@ -48383,7 +48382,7 @@
       <c r="U687" s="2">
         <v>0</v>
       </c>
-      <c r="V687" s="12">
+      <c r="V687" s="6">
         <v>0</v>
       </c>
       <c r="W687">
@@ -48452,7 +48451,7 @@
       <c r="U688" s="2">
         <v>0</v>
       </c>
-      <c r="V688" s="12">
+      <c r="V688" s="6">
         <v>0</v>
       </c>
       <c r="W688">
@@ -48521,7 +48520,7 @@
       <c r="U689" s="2">
         <v>0</v>
       </c>
-      <c r="V689" s="12">
+      <c r="V689" s="6">
         <v>0</v>
       </c>
       <c r="W689">
@@ -48590,7 +48589,7 @@
       <c r="U690" s="2">
         <v>0</v>
       </c>
-      <c r="V690" s="12">
+      <c r="V690" s="6">
         <v>0</v>
       </c>
       <c r="W690">
@@ -48659,7 +48658,7 @@
       <c r="U691" s="2">
         <v>0</v>
       </c>
-      <c r="V691" s="12">
+      <c r="V691" s="6">
         <v>0</v>
       </c>
       <c r="W691">
@@ -48728,7 +48727,7 @@
       <c r="U692" s="2">
         <v>0</v>
       </c>
-      <c r="V692" s="12">
+      <c r="V692" s="6">
         <v>0</v>
       </c>
       <c r="W692">
@@ -48797,7 +48796,7 @@
       <c r="U693" s="2">
         <v>0</v>
       </c>
-      <c r="V693" s="12">
+      <c r="V693" s="6">
         <v>0</v>
       </c>
       <c r="W693">
@@ -48866,7 +48865,7 @@
       <c r="U694" s="2">
         <v>0</v>
       </c>
-      <c r="V694" s="12">
+      <c r="V694" s="6">
         <v>0</v>
       </c>
       <c r="W694">
@@ -48935,7 +48934,7 @@
       <c r="U695" s="2">
         <v>0</v>
       </c>
-      <c r="V695" s="12">
+      <c r="V695" s="6">
         <v>0</v>
       </c>
       <c r="W695">
@@ -49004,7 +49003,7 @@
       <c r="U696" s="2">
         <v>0</v>
       </c>
-      <c r="V696" s="12">
+      <c r="V696" s="6">
         <v>0</v>
       </c>
       <c r="W696">
@@ -49073,7 +49072,7 @@
       <c r="U697" s="2">
         <v>0</v>
       </c>
-      <c r="V697" s="12">
+      <c r="V697" s="6">
         <v>0</v>
       </c>
       <c r="W697">
@@ -49142,7 +49141,7 @@
       <c r="U698" s="2">
         <v>0</v>
       </c>
-      <c r="V698" s="12">
+      <c r="V698" s="6">
         <v>0</v>
       </c>
       <c r="W698">
@@ -49211,7 +49210,7 @@
       <c r="U699" s="2">
         <v>0</v>
       </c>
-      <c r="V699" s="12">
+      <c r="V699" s="6">
         <v>0</v>
       </c>
       <c r="W699">
@@ -49280,7 +49279,7 @@
       <c r="U700" s="2">
         <v>0</v>
       </c>
-      <c r="V700" s="12">
+      <c r="V700" s="6">
         <v>0</v>
       </c>
       <c r="W700">
@@ -49349,7 +49348,7 @@
       <c r="U701" s="2">
         <v>0</v>
       </c>
-      <c r="V701" s="12">
+      <c r="V701" s="6">
         <v>0</v>
       </c>
       <c r="W701">
@@ -49418,7 +49417,7 @@
       <c r="U702" s="2">
         <v>0</v>
       </c>
-      <c r="V702" s="12">
+      <c r="V702" s="6">
         <v>0</v>
       </c>
       <c r="W702">
@@ -49487,7 +49486,7 @@
       <c r="U703" s="2">
         <v>0</v>
       </c>
-      <c r="V703" s="12">
+      <c r="V703" s="6">
         <v>0</v>
       </c>
       <c r="W703">
@@ -49556,7 +49555,7 @@
       <c r="U704" s="2">
         <v>0</v>
       </c>
-      <c r="V704" s="12">
+      <c r="V704" s="6">
         <v>0</v>
       </c>
       <c r="W704">
@@ -49625,7 +49624,7 @@
       <c r="U705" s="2">
         <v>0</v>
       </c>
-      <c r="V705" s="12">
+      <c r="V705" s="6">
         <v>0</v>
       </c>
       <c r="W705">
@@ -49694,7 +49693,7 @@
       <c r="U706" s="2">
         <v>0</v>
       </c>
-      <c r="V706" s="12">
+      <c r="V706" s="6">
         <v>0</v>
       </c>
       <c r="W706">
@@ -49763,7 +49762,7 @@
       <c r="U707" s="2">
         <v>0</v>
       </c>
-      <c r="V707" s="12">
+      <c r="V707" s="6">
         <v>0</v>
       </c>
       <c r="W707">
@@ -49832,7 +49831,7 @@
       <c r="U708" s="2">
         <v>0</v>
       </c>
-      <c r="V708" s="12">
+      <c r="V708" s="6">
         <v>0</v>
       </c>
       <c r="W708">
@@ -49901,7 +49900,7 @@
       <c r="U709" s="2">
         <v>0</v>
       </c>
-      <c r="V709" s="12">
+      <c r="V709" s="6">
         <v>0</v>
       </c>
       <c r="W709">
@@ -49970,7 +49969,7 @@
       <c r="U710" s="2">
         <v>0</v>
       </c>
-      <c r="V710" s="12">
+      <c r="V710" s="6">
         <v>0</v>
       </c>
       <c r="W710">
@@ -50039,7 +50038,7 @@
       <c r="U711" s="2">
         <v>0</v>
       </c>
-      <c r="V711" s="12">
+      <c r="V711" s="6">
         <v>0</v>
       </c>
       <c r="W711">
@@ -50108,7 +50107,7 @@
       <c r="U712" s="2">
         <v>0</v>
       </c>
-      <c r="V712" s="12">
+      <c r="V712" s="6">
         <v>0</v>
       </c>
       <c r="W712">
@@ -50177,7 +50176,7 @@
       <c r="U713" s="2">
         <v>0</v>
       </c>
-      <c r="V713" s="12">
+      <c r="V713" s="6">
         <v>0</v>
       </c>
       <c r="W713">
@@ -50246,7 +50245,7 @@
       <c r="U714" s="2">
         <v>0</v>
       </c>
-      <c r="V714" s="12">
+      <c r="V714" s="6">
         <v>0</v>
       </c>
       <c r="W714">
@@ -50315,7 +50314,7 @@
       <c r="U715" s="2">
         <v>0</v>
       </c>
-      <c r="V715" s="12">
+      <c r="V715" s="6">
         <v>0</v>
       </c>
       <c r="W715">
@@ -50384,7 +50383,7 @@
       <c r="U716" s="2">
         <v>0</v>
       </c>
-      <c r="V716" s="12">
+      <c r="V716" s="6">
         <v>0</v>
       </c>
       <c r="W716">
@@ -50453,7 +50452,7 @@
       <c r="U717" s="2">
         <v>0</v>
       </c>
-      <c r="V717" s="12">
+      <c r="V717" s="6">
         <v>0</v>
       </c>
       <c r="W717">
@@ -50522,7 +50521,7 @@
       <c r="U718" s="2">
         <v>0</v>
       </c>
-      <c r="V718" s="12">
+      <c r="V718" s="6">
         <v>0</v>
       </c>
       <c r="W718">
@@ -50591,7 +50590,7 @@
       <c r="U719" s="2">
         <v>0</v>
       </c>
-      <c r="V719" s="12">
+      <c r="V719" s="6">
         <v>0</v>
       </c>
       <c r="W719">
@@ -50660,7 +50659,7 @@
       <c r="U720" s="2">
         <v>0</v>
       </c>
-      <c r="V720" s="12">
+      <c r="V720" s="6">
         <v>0</v>
       </c>
       <c r="W720">
@@ -50729,7 +50728,7 @@
       <c r="U721" s="2">
         <v>0</v>
       </c>
-      <c r="V721" s="12">
+      <c r="V721" s="6">
         <v>0</v>
       </c>
       <c r="W721">
@@ -50798,7 +50797,7 @@
       <c r="U722" s="2">
         <v>0</v>
       </c>
-      <c r="V722" s="12">
+      <c r="V722" s="6">
         <v>0</v>
       </c>
       <c r="W722">
@@ -50867,7 +50866,7 @@
       <c r="U723" s="2">
         <v>0</v>
       </c>
-      <c r="V723" s="12">
+      <c r="V723" s="6">
         <v>0</v>
       </c>
       <c r="W723">
@@ -50936,7 +50935,7 @@
       <c r="U724" s="2">
         <v>0</v>
       </c>
-      <c r="V724" s="12">
+      <c r="V724" s="6">
         <v>0</v>
       </c>
       <c r="W724">
@@ -51005,7 +51004,7 @@
       <c r="U725" s="2">
         <v>0</v>
       </c>
-      <c r="V725" s="12">
+      <c r="V725" s="6">
         <v>0</v>
       </c>
       <c r="W725">
@@ -51074,7 +51073,7 @@
       <c r="U726" s="2">
         <v>0</v>
       </c>
-      <c r="V726" s="12">
+      <c r="V726" s="6">
         <v>0</v>
       </c>
       <c r="W726">
@@ -51143,7 +51142,7 @@
       <c r="U727" s="2">
         <v>0</v>
       </c>
-      <c r="V727" s="12">
+      <c r="V727" s="6">
         <v>0</v>
       </c>
       <c r="W727">
@@ -51212,7 +51211,7 @@
       <c r="U728" s="2">
         <v>0</v>
       </c>
-      <c r="V728" s="12">
+      <c r="V728" s="6">
         <v>0</v>
       </c>
       <c r="W728">
@@ -51281,7 +51280,7 @@
       <c r="U729" s="2">
         <v>0</v>
       </c>
-      <c r="V729" s="12">
+      <c r="V729" s="6">
         <v>0</v>
       </c>
       <c r="W729">
@@ -51350,7 +51349,7 @@
       <c r="U730" s="2">
         <v>0</v>
       </c>
-      <c r="V730" s="12">
+      <c r="V730" s="6">
         <v>0</v>
       </c>
       <c r="W730">
@@ -51419,7 +51418,7 @@
       <c r="U731" s="2">
         <v>0</v>
       </c>
-      <c r="V731" s="12">
+      <c r="V731" s="6">
         <v>0</v>
       </c>
       <c r="W731">
@@ -51488,7 +51487,7 @@
       <c r="U732" s="2">
         <v>0</v>
       </c>
-      <c r="V732" s="12">
+      <c r="V732" s="6">
         <v>0</v>
       </c>
       <c r="W732">
@@ -51557,7 +51556,7 @@
       <c r="U733" s="2">
         <v>0</v>
       </c>
-      <c r="V733" s="12">
+      <c r="V733" s="6">
         <v>0</v>
       </c>
       <c r="W733">
@@ -51626,7 +51625,7 @@
       <c r="U734" s="2">
         <v>0</v>
       </c>
-      <c r="V734" s="12">
+      <c r="V734" s="6">
         <v>0</v>
       </c>
       <c r="W734">
@@ -51695,7 +51694,7 @@
       <c r="U735" s="2">
         <v>0</v>
       </c>
-      <c r="V735" s="12">
+      <c r="V735" s="6">
         <v>0</v>
       </c>
       <c r="W735">
@@ -51764,7 +51763,7 @@
       <c r="U736" s="2">
         <v>0</v>
       </c>
-      <c r="V736" s="12">
+      <c r="V736" s="6">
         <v>0</v>
       </c>
       <c r="W736">
@@ -51833,7 +51832,7 @@
       <c r="U737" s="2">
         <v>0</v>
       </c>
-      <c r="V737" s="12">
+      <c r="V737" s="6">
         <v>0</v>
       </c>
       <c r="W737">
@@ -51902,7 +51901,7 @@
       <c r="U738" s="2">
         <v>0</v>
       </c>
-      <c r="V738" s="12">
+      <c r="V738" s="6">
         <v>0</v>
       </c>
       <c r="W738">
@@ -51971,7 +51970,7 @@
       <c r="U739" s="2">
         <v>0</v>
       </c>
-      <c r="V739" s="12">
+      <c r="V739" s="6">
         <v>0</v>
       </c>
       <c r="W739">
@@ -52040,7 +52039,7 @@
       <c r="U740" s="2">
         <v>0</v>
       </c>
-      <c r="V740" s="12">
+      <c r="V740" s="6">
         <v>0</v>
       </c>
       <c r="W740">
@@ -52109,7 +52108,7 @@
       <c r="U741" s="2">
         <v>0</v>
       </c>
-      <c r="V741" s="12">
+      <c r="V741" s="6">
         <v>0</v>
       </c>
       <c r="W741">
@@ -52178,7 +52177,7 @@
       <c r="U742" s="2">
         <v>0</v>
       </c>
-      <c r="V742" s="12">
+      <c r="V742" s="6">
         <v>0</v>
       </c>
       <c r="W742">
@@ -52247,7 +52246,7 @@
       <c r="U743" s="2">
         <v>0</v>
       </c>
-      <c r="V743" s="12">
+      <c r="V743" s="6">
         <v>0</v>
       </c>
       <c r="W743">
@@ -52316,7 +52315,7 @@
       <c r="U744" s="2">
         <v>0</v>
       </c>
-      <c r="V744" s="12">
+      <c r="V744" s="6">
         <v>0</v>
       </c>
       <c r="W744">
@@ -52385,7 +52384,7 @@
       <c r="U745" s="2">
         <v>0</v>
       </c>
-      <c r="V745" s="12">
+      <c r="V745" s="6">
         <v>0</v>
       </c>
       <c r="W745">
@@ -52454,7 +52453,7 @@
       <c r="U746" s="2">
         <v>0</v>
       </c>
-      <c r="V746" s="12">
+      <c r="V746" s="6">
         <v>0</v>
       </c>
       <c r="W746">
@@ -52523,7 +52522,7 @@
       <c r="U747" s="2">
         <v>0</v>
       </c>
-      <c r="V747" s="12">
+      <c r="V747" s="6">
         <v>0</v>
       </c>
       <c r="W747">
@@ -52592,7 +52591,7 @@
       <c r="U748" s="2">
         <v>0</v>
       </c>
-      <c r="V748" s="12">
+      <c r="V748" s="6">
         <v>0</v>
       </c>
       <c r="W748">
@@ -52661,7 +52660,7 @@
       <c r="U749" s="2">
         <v>0</v>
       </c>
-      <c r="V749" s="12">
+      <c r="V749" s="6">
         <v>0</v>
       </c>
       <c r="W749">
@@ -52730,7 +52729,7 @@
       <c r="U750" s="2">
         <v>0</v>
       </c>
-      <c r="V750" s="12">
+      <c r="V750" s="6">
         <v>0</v>
       </c>
       <c r="W750">
@@ -52799,7 +52798,7 @@
       <c r="U751" s="2">
         <v>0</v>
       </c>
-      <c r="V751" s="12">
+      <c r="V751" s="6">
         <v>0</v>
       </c>
       <c r="W751">
@@ -52868,7 +52867,7 @@
       <c r="U752" s="2">
         <v>0</v>
       </c>
-      <c r="V752" s="12">
+      <c r="V752" s="6">
         <v>0</v>
       </c>
       <c r="W752">
@@ -52937,7 +52936,7 @@
       <c r="U753" s="2">
         <v>0</v>
       </c>
-      <c r="V753" s="12">
+      <c r="V753" s="6">
         <v>0</v>
       </c>
       <c r="W753">
@@ -53006,7 +53005,7 @@
       <c r="U754" s="2">
         <v>0</v>
       </c>
-      <c r="V754" s="12">
+      <c r="V754" s="6">
         <v>0</v>
       </c>
       <c r="W754">
@@ -53075,7 +53074,7 @@
       <c r="U755" s="2">
         <v>0</v>
       </c>
-      <c r="V755" s="12">
+      <c r="V755" s="6">
         <v>0</v>
       </c>
       <c r="W755">
@@ -53144,7 +53143,7 @@
       <c r="U756" s="2">
         <v>0</v>
       </c>
-      <c r="V756" s="12">
+      <c r="V756" s="6">
         <v>0</v>
       </c>
       <c r="W756">
@@ -53213,7 +53212,7 @@
       <c r="U757" s="2">
         <v>0</v>
       </c>
-      <c r="V757" s="12">
+      <c r="V757" s="6">
         <v>0</v>
       </c>
       <c r="W757">
@@ -53282,7 +53281,7 @@
       <c r="U758" s="2">
         <v>0</v>
       </c>
-      <c r="V758" s="12">
+      <c r="V758" s="6">
         <v>0</v>
       </c>
       <c r="W758">
@@ -53351,7 +53350,7 @@
       <c r="U759" s="2">
         <v>0</v>
       </c>
-      <c r="V759" s="12">
+      <c r="V759" s="6">
         <v>0</v>
       </c>
       <c r="W759">
@@ -53420,7 +53419,7 @@
       <c r="U760" s="2">
         <v>0</v>
       </c>
-      <c r="V760" s="12">
+      <c r="V760" s="6">
         <v>0</v>
       </c>
       <c r="W760">
@@ -53489,7 +53488,7 @@
       <c r="U761" s="2">
         <v>0</v>
       </c>
-      <c r="V761" s="12">
+      <c r="V761" s="6">
         <v>0</v>
       </c>
       <c r="W761">
@@ -53558,7 +53557,7 @@
       <c r="U762" s="2">
         <v>0</v>
       </c>
-      <c r="V762" s="12">
+      <c r="V762" s="6">
         <v>0</v>
       </c>
       <c r="W762">
@@ -53627,7 +53626,7 @@
       <c r="U763" s="2">
         <v>0</v>
       </c>
-      <c r="V763" s="12">
+      <c r="V763" s="6">
         <v>0</v>
       </c>
       <c r="W763">
@@ -53696,7 +53695,7 @@
       <c r="U764" s="2">
         <v>0</v>
       </c>
-      <c r="V764" s="12">
+      <c r="V764" s="6">
         <v>0</v>
       </c>
       <c r="W764">
@@ -53765,7 +53764,7 @@
       <c r="U765" s="2">
         <v>0</v>
       </c>
-      <c r="V765" s="12">
+      <c r="V765" s="6">
         <v>0</v>
       </c>
       <c r="W765">
@@ -53834,7 +53833,7 @@
       <c r="U766" s="2">
         <v>0</v>
       </c>
-      <c r="V766" s="12">
+      <c r="V766" s="6">
         <v>0</v>
       </c>
       <c r="W766">
@@ -53903,7 +53902,7 @@
       <c r="U767" s="2">
         <v>0</v>
       </c>
-      <c r="V767" s="12">
+      <c r="V767" s="6">
         <v>0</v>
       </c>
       <c r="W767">
@@ -53972,7 +53971,7 @@
       <c r="U768" s="2">
         <v>0</v>
       </c>
-      <c r="V768" s="12">
+      <c r="V768" s="6">
         <v>0</v>
       </c>
       <c r="W768">
@@ -54041,7 +54040,7 @@
       <c r="U769" s="2">
         <v>0</v>
       </c>
-      <c r="V769" s="12">
+      <c r="V769" s="6">
         <v>0</v>
       </c>
       <c r="W769">
@@ -54110,7 +54109,7 @@
       <c r="U770" s="2">
         <v>0</v>
       </c>
-      <c r="V770" s="12">
+      <c r="V770" s="6">
         <v>0</v>
       </c>
       <c r="W770">
@@ -54179,7 +54178,7 @@
       <c r="U771" s="2">
         <v>0</v>
       </c>
-      <c r="V771" s="12">
+      <c r="V771" s="6">
         <v>0</v>
       </c>
       <c r="W771">
@@ -54248,7 +54247,7 @@
       <c r="U772" s="2">
         <v>0</v>
       </c>
-      <c r="V772" s="12">
+      <c r="V772" s="6">
         <v>0</v>
       </c>
       <c r="W772">
@@ -54317,7 +54316,7 @@
       <c r="U773" s="2">
         <v>0</v>
       </c>
-      <c r="V773" s="12">
+      <c r="V773" s="6">
         <v>0</v>
       </c>
       <c r="W773">
@@ -54386,7 +54385,7 @@
       <c r="U774" s="2">
         <v>0</v>
       </c>
-      <c r="V774" s="12">
+      <c r="V774" s="6">
         <v>0</v>
       </c>
       <c r="W774">
@@ -54455,7 +54454,7 @@
       <c r="U775" s="2">
         <v>0</v>
       </c>
-      <c r="V775" s="12">
+      <c r="V775" s="6">
         <v>0</v>
       </c>
       <c r="W775">
@@ -54524,7 +54523,7 @@
       <c r="U776" s="2">
         <v>0</v>
       </c>
-      <c r="V776" s="12">
+      <c r="V776" s="6">
         <v>0</v>
       </c>
       <c r="W776">
@@ -54593,7 +54592,7 @@
       <c r="U777" s="2">
         <v>0</v>
       </c>
-      <c r="V777" s="12">
+      <c r="V777" s="6">
         <v>0</v>
       </c>
       <c r="W777">
@@ -54662,7 +54661,7 @@
       <c r="U778" s="2">
         <v>0</v>
       </c>
-      <c r="V778" s="12">
+      <c r="V778" s="6">
         <v>0</v>
       </c>
       <c r="W778">
@@ -54731,7 +54730,7 @@
       <c r="U779" s="2">
         <v>0</v>
       </c>
-      <c r="V779" s="12">
+      <c r="V779" s="6">
         <v>0</v>
       </c>
       <c r="W779">
@@ -54800,7 +54799,7 @@
       <c r="U780" s="2">
         <v>0</v>
       </c>
-      <c r="V780" s="12">
+      <c r="V780" s="6">
         <v>0</v>
       </c>
       <c r="W780">
@@ -54869,7 +54868,7 @@
       <c r="U781" s="2">
         <v>0</v>
       </c>
-      <c r="V781" s="12">
+      <c r="V781" s="6">
         <v>0</v>
       </c>
       <c r="W781">
@@ -54938,7 +54937,7 @@
       <c r="U782" s="2">
         <v>0</v>
       </c>
-      <c r="V782" s="12">
+      <c r="V782" s="6">
         <v>0</v>
       </c>
       <c r="W782">
@@ -55007,7 +55006,7 @@
       <c r="U783" s="2">
         <v>0</v>
       </c>
-      <c r="V783" s="12">
+      <c r="V783" s="6">
         <v>0</v>
       </c>
       <c r="W783">
@@ -55076,7 +55075,7 @@
       <c r="U784" s="2">
         <v>0</v>
       </c>
-      <c r="V784" s="12">
+      <c r="V784" s="6">
         <v>0</v>
       </c>
       <c r="W784">
@@ -55145,7 +55144,7 @@
       <c r="U785" s="2">
         <v>0</v>
       </c>
-      <c r="V785" s="12">
+      <c r="V785" s="6">
         <v>0</v>
       </c>
       <c r="W785">
